--- a/covid19_events.xlsx
+++ b/covid19_events.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cganty\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cganty\Documents\src\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF2721D-284F-45C4-921D-65D82E10B4BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FB315-2C75-4448-B45B-5AB8C5A684EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7680" yWindow="-360" windowWidth="15375" windowHeight="10920" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10335" windowHeight="10920" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="iso2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">events!$C$1:$C$122</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="364">
   <si>
     <t>id</t>
   </si>
@@ -201,9 +204,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -339,57 +339,18 @@
     <t>spread</t>
   </si>
   <si>
-    <t>human-to-human transmission confirmed</t>
-  </si>
-  <si>
-    <t>17 death</t>
-  </si>
-  <si>
-    <t>man;60s;1d</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>spread;o200c</t>
-  </si>
-  <si>
-    <t>o550c</t>
-  </si>
-  <si>
-    <t>17d</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t>26 death</t>
-  </si>
-  <si>
-    <t>26d</t>
-  </si>
-  <si>
-    <t>830c</t>
-  </si>
-  <si>
     <t>13 cities placed in quarantine in Hubei Province</t>
   </si>
   <si>
     <t>Wuhan, Xiantao and Chibi placed in quarantine</t>
   </si>
   <si>
-    <t>city;air;rail</t>
-  </si>
-  <si>
     <t>first death outside Hubei</t>
   </si>
   <si>
-    <t>18d;spread</t>
-  </si>
-  <si>
     <t>cancellation</t>
   </si>
   <si>
@@ -441,48 +402,18 @@
     <t>new cases reported</t>
   </si>
   <si>
-    <t>106 death</t>
-  </si>
-  <si>
-    <t>106d</t>
-  </si>
-  <si>
     <t>travel restriction to/from China</t>
   </si>
   <si>
-    <t>56 death</t>
-  </si>
-  <si>
-    <t>56d</t>
-  </si>
-  <si>
     <t>travel restrictions increased</t>
   </si>
   <si>
-    <t>l2000c</t>
-  </si>
-  <si>
     <t>entertainment</t>
   </si>
   <si>
     <t>Disneyland and Ocean Park closed</t>
   </si>
   <si>
-    <t>4515c</t>
-  </si>
-  <si>
-    <t>COVID-19 declared as a global emergency</t>
-  </si>
-  <si>
-    <t>170 death</t>
-  </si>
-  <si>
-    <t>170d</t>
-  </si>
-  <si>
-    <t>7711c</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -495,12 +426,6 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>spread;1c</t>
-  </si>
-  <si>
-    <t>9809c</t>
-  </si>
-  <si>
     <t>RU</t>
   </si>
   <si>
@@ -513,12 +438,6 @@
     <t>first positive-cases</t>
   </si>
   <si>
-    <t>259 death</t>
-  </si>
-  <si>
-    <t>259d</t>
-  </si>
-  <si>
     <t>over 200 positive-cases outside Wuhan (Beijing, Shangai, Shenzhen)</t>
   </si>
   <si>
@@ -543,9 +462,6 @@
     <t>11791 positive-cases</t>
   </si>
   <si>
-    <t>11791c</t>
-  </si>
-  <si>
     <t>AU</t>
   </si>
   <si>
@@ -579,19 +495,640 @@
     <t>new positive-cases</t>
   </si>
   <si>
-    <t>1d;man</t>
-  </si>
-  <si>
-    <t>304 death</t>
-  </si>
-  <si>
-    <t>304d</t>
-  </si>
-  <si>
     <t>14380 positive-cases</t>
   </si>
   <si>
-    <t>14380c</t>
+    <t>17205 positives-cases</t>
+  </si>
+  <si>
+    <t>20438 positives-cases</t>
+  </si>
+  <si>
+    <t>1 death</t>
+  </si>
+  <si>
+    <t>no known effective treatment</t>
+  </si>
+  <si>
+    <t>more than 28000 positive-cases</t>
+  </si>
+  <si>
+    <t>24324 positive-cases</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>30 positive-cases</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>human-to-human spread</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>prison</t>
+  </si>
+  <si>
+    <t>prison sentences for anyone breaking the quarantine rule</t>
+  </si>
+  <si>
+    <t>31161 positive-cases</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>animal-human spread through pangolin suggested</t>
+  </si>
+  <si>
+    <t>human-to-human transmission confirmed by a chinese scientist</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>34546 positive-cases</t>
+  </si>
+  <si>
+    <t>37198 positive-cases</t>
+  </si>
+  <si>
+    <t>40171 positive-cases</t>
+  </si>
+  <si>
+    <t>COVID-19 official name</t>
+  </si>
+  <si>
+    <t>coronavirus declared as a global emergency</t>
+  </si>
+  <si>
+    <t>175 positive-cases on cruise ship</t>
+  </si>
+  <si>
+    <t>42638 positive-cases</t>
+  </si>
+  <si>
+    <t>44653 positive-cases</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>North-Korea</t>
+  </si>
+  <si>
+    <t>South-Korea</t>
+  </si>
+  <si>
+    <t>positive-case;foreigner</t>
+  </si>
+  <si>
+    <t>Month-long quarantine for foreign visitors and other suspected to have COVID-19</t>
+  </si>
+  <si>
+    <t>nearly 60000 positive-cases</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>more than 1500 death</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>publication of a 3rd february speech of Chinese president indicating the government knew about the threat of virus before the public alarm was raised</t>
+  </si>
+  <si>
+    <t>1770 deaths</t>
+  </si>
+  <si>
+    <t>nearly 1400 deaths</t>
+  </si>
+  <si>
+    <t>1300 deaths</t>
+  </si>
+  <si>
+    <t>1665 deaths</t>
+  </si>
+  <si>
+    <t>66492 positive-cases</t>
+  </si>
+  <si>
+    <t>1113 deaths</t>
+  </si>
+  <si>
+    <t>1016 deaths</t>
+  </si>
+  <si>
+    <t>908 deaths</t>
+  </si>
+  <si>
+    <t>811 deaths</t>
+  </si>
+  <si>
+    <t>722 deaths</t>
+  </si>
+  <si>
+    <t>636 deaths</t>
+  </si>
+  <si>
+    <t>563 deaths</t>
+  </si>
+  <si>
+    <t>490 deaths</t>
+  </si>
+  <si>
+    <t>425 deaths</t>
+  </si>
+  <si>
+    <t>361 deaths</t>
+  </si>
+  <si>
+    <t>304 deaths</t>
+  </si>
+  <si>
+    <t>259 deaths</t>
+  </si>
+  <si>
+    <t>170 deaths</t>
+  </si>
+  <si>
+    <t>106 deaths</t>
+  </si>
+  <si>
+    <t>56 deaths</t>
+  </si>
+  <si>
+    <t>26 deaths</t>
+  </si>
+  <si>
+    <t>17 deaths</t>
+  </si>
+  <si>
+    <t>68500 positive-cases</t>
+  </si>
+  <si>
+    <t>70548 positive-cases</t>
+  </si>
+  <si>
+    <t>274 positive-cases on cruise ship</t>
+  </si>
+  <si>
+    <t>1868 deaths</t>
+  </si>
+  <si>
+    <t>72436 positive-cases</t>
+  </si>
+  <si>
+    <t>ban entry for Chinese citizens</t>
+  </si>
+  <si>
+    <t>city;travel</t>
+  </si>
+  <si>
+    <t>air;trail</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>2 deaths</t>
+  </si>
+  <si>
+    <t>74185 positive-cases</t>
+  </si>
+  <si>
+    <t>2004 deaths</t>
+  </si>
+  <si>
+    <t>2118 deaths</t>
+  </si>
+  <si>
+    <t>74576 positive-cases</t>
+  </si>
+  <si>
+    <t>204 positive-cases</t>
+  </si>
+  <si>
+    <t>2236 deaths</t>
+  </si>
+  <si>
+    <t>over 75400 positive-cases</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>6 positive-cases</t>
+  </si>
+  <si>
+    <t>433 positive-cases</t>
+  </si>
+  <si>
+    <t>5 deaths</t>
+  </si>
+  <si>
+    <t>28 positive-cases</t>
+  </si>
+  <si>
+    <t>6 deaths, not sure it is a death linked to COVID-19</t>
+  </si>
+  <si>
+    <t>over 75797 positive-cases</t>
+  </si>
+  <si>
+    <t>Borders closed with Iran</t>
+  </si>
+  <si>
+    <t>3 deaths</t>
+  </si>
+  <si>
+    <t>Venise Carnaval and sport events cancellation</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Barhain</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>833 positive-cases</t>
+  </si>
+  <si>
+    <t>7 deaths</t>
+  </si>
+  <si>
+    <t>2595 deaths</t>
+  </si>
+  <si>
+    <t>77262 positive-cases</t>
+  </si>
+  <si>
+    <t>95 positive-cases</t>
+  </si>
+  <si>
+    <t>15 deaths</t>
+  </si>
+  <si>
+    <t>2666 deaths</t>
+  </si>
+  <si>
+    <t>77780 positive-cases</t>
+  </si>
+  <si>
+    <t>977 positive-cases</t>
+  </si>
+  <si>
+    <t>229 positive-cases</t>
+  </si>
+  <si>
+    <t>almost 2800 deaths</t>
+  </si>
+  <si>
+    <t>around 80000 positive-cases</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>over 82000 positive-cases</t>
+  </si>
+  <si>
+    <t>man;s60;d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>spread;c200o</t>
+  </si>
+  <si>
+    <t>d17</t>
+  </si>
+  <si>
+    <t>c550o</t>
+  </si>
+  <si>
+    <t>d18;spread</t>
+  </si>
+  <si>
+    <t>d26</t>
+  </si>
+  <si>
+    <t>c830</t>
+  </si>
+  <si>
+    <t>d56</t>
+  </si>
+  <si>
+    <t>c2000l</t>
+  </si>
+  <si>
+    <t>d106</t>
+  </si>
+  <si>
+    <t>c4515</t>
+  </si>
+  <si>
+    <t>d170</t>
+  </si>
+  <si>
+    <t>c7711</t>
+  </si>
+  <si>
+    <t>spread;c1</t>
+  </si>
+  <si>
+    <t>c9809</t>
+  </si>
+  <si>
+    <t>d259</t>
+  </si>
+  <si>
+    <t>c11791</t>
+  </si>
+  <si>
+    <t>d1;man</t>
+  </si>
+  <si>
+    <t>d304</t>
+  </si>
+  <si>
+    <t>c14380</t>
+  </si>
+  <si>
+    <t>d361</t>
+  </si>
+  <si>
+    <t>c17205</t>
+  </si>
+  <si>
+    <t>d425</t>
+  </si>
+  <si>
+    <t>c20438</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d490</t>
+  </si>
+  <si>
+    <t>c24324</t>
+  </si>
+  <si>
+    <t>d563</t>
+  </si>
+  <si>
+    <t>c28000o</t>
+  </si>
+  <si>
+    <t>c30</t>
+  </si>
+  <si>
+    <t>d636</t>
+  </si>
+  <si>
+    <t>c31161</t>
+  </si>
+  <si>
+    <t>d722</t>
+  </si>
+  <si>
+    <t>c34436</t>
+  </si>
+  <si>
+    <t>d811</t>
+  </si>
+  <si>
+    <t>c37198</t>
+  </si>
+  <si>
+    <t>d908</t>
+  </si>
+  <si>
+    <t>c40171</t>
+  </si>
+  <si>
+    <t>d1016</t>
+  </si>
+  <si>
+    <t>c42638</t>
+  </si>
+  <si>
+    <t>d1113</t>
+  </si>
+  <si>
+    <t>c44653</t>
+  </si>
+  <si>
+    <t>d1300</t>
+  </si>
+  <si>
+    <t>c60000l</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>d1400l</t>
+  </si>
+  <si>
+    <t>d1500o</t>
+  </si>
+  <si>
+    <t>c66492</t>
+  </si>
+  <si>
+    <t>d1;man;s60</t>
+  </si>
+  <si>
+    <t>d1665</t>
+  </si>
+  <si>
+    <t>c68500</t>
+  </si>
+  <si>
+    <t>d1770</t>
+  </si>
+  <si>
+    <t>c70548</t>
+  </si>
+  <si>
+    <t>c274</t>
+  </si>
+  <si>
+    <t>d1868</t>
+  </si>
+  <si>
+    <t>c72436</t>
+  </si>
+  <si>
+    <t>c74185</t>
+  </si>
+  <si>
+    <t>d2004</t>
+  </si>
+  <si>
+    <t>d2118</t>
+  </si>
+  <si>
+    <t>c74576</t>
+  </si>
+  <si>
+    <t>c204</t>
+  </si>
+  <si>
+    <t>d2236</t>
+  </si>
+  <si>
+    <t>c75400o</t>
+  </si>
+  <si>
+    <t>c1;spread</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c433</t>
+  </si>
+  <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>c75795o</t>
+  </si>
+  <si>
+    <t>c833</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d2595</t>
+  </si>
+  <si>
+    <t>c77262</t>
+  </si>
+  <si>
+    <t>c95</t>
+  </si>
+  <si>
+    <t>d15</t>
+  </si>
+  <si>
+    <t>d2666</t>
+  </si>
+  <si>
+    <t>c77780</t>
+  </si>
+  <si>
+    <t>c977</t>
+  </si>
+  <si>
+    <t>c229</t>
+  </si>
+  <si>
+    <t>d2800l</t>
+  </si>
+  <si>
+    <t>c80000a</t>
+  </si>
+  <si>
+    <t>c82000o</t>
   </si>
 </sst>
 </file>
@@ -642,12 +1179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -963,17 +1501,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82E1A5-1AF0-4B8D-AEC0-EAE4D7F581D4}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="G146" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="44.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
@@ -1019,777 +1559,990 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1">
         <v>43830</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1">
         <v>43831</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1">
         <v>43835</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1">
         <v>43837</v>
       </c>
       <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
         <v>78</v>
       </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1">
         <v>43841</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>83</v>
       </c>
       <c r="D7" s="1">
         <v>43843</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>86</v>
       </c>
       <c r="D8" s="1">
         <v>43846</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>43847</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>280</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>91</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>92</v>
       </c>
       <c r="D10" s="1">
         <v>43847</v>
       </c>
       <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>95</v>
       </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1">
         <v>43850</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>43850</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1">
         <v>43850</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1">
         <v>43852</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
         <v>43852</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1">
         <v>43911</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1">
         <v>43853</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>222</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>43853</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>43853</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1">
         <v>43853</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M19" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1">
         <v>43854</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M20" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1">
         <v>43854</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
         <v>43854</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M22" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
         <v>43854</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1">
         <v>43855</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M24" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1">
         <v>43855</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M25" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1">
         <v>43855</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M26" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>43856</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M27" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1">
         <v>43856</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M28" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1">
         <v>43856</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>289</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1">
         <v>43856</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M30" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1">
         <v>43856</v>
       </c>
       <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>82</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>83</v>
       </c>
       <c r="D32" s="1">
         <v>43856</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>85</v>
-      </c>
-      <c r="H32" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>86</v>
       </c>
       <c r="D33" s="1">
         <v>43856</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M33" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
@@ -1797,279 +2550,348 @@
         <v>43856</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M34" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1">
         <v>43856</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M35" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1">
         <v>43857</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M36" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1">
         <v>43857</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M37" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="38" spans="3:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D38" s="4">
         <v>43860</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M38" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1">
         <v>43860</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="I39" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M39" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1">
         <v>43860</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M40" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1">
         <v>43860</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M41" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1">
         <v>43860</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M42" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1">
         <v>43861</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M43" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1">
         <v>43861</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M44" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
@@ -2077,25 +2899,31 @@
         <v>43861</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M45" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -2103,25 +2931,31 @@
         <v>43861</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M46" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
@@ -2129,129 +2963,159 @@
         <v>43861</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M47" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1">
         <v>43862</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M48" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1">
         <v>43862</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I49" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M49" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D50" s="1">
         <v>43862</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M50" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="D51" s="1">
         <v>43862</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M51" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -2259,431 +3123,3446 @@
         <v>43862</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M52" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
         <v>85</v>
-      </c>
-      <c r="H52" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" t="s">
-        <v>100</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M52" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>86</v>
       </c>
       <c r="D53" s="1">
         <v>43862</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M53" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1">
         <v>43862</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M54" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>43862</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M55" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1">
         <v>43862</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M56" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1">
         <v>43862</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="I57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M57" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1">
         <v>43863</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
         <v>80</v>
       </c>
-      <c r="H58" t="s">
-        <v>81</v>
-      </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M58" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1">
         <v>43863</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="I59" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M59" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1">
         <v>43863</v>
       </c>
       <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" t="s">
+        <v>300</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43864</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" t="s">
+        <v>301</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43864</v>
+      </c>
+      <c r="F62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s">
+        <v>153</v>
+      </c>
+      <c r="I62" t="s">
+        <v>302</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43865</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I63" t="s">
+        <v>303</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43865</v>
+      </c>
+      <c r="F64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>154</v>
+      </c>
+      <c r="I64" t="s">
+        <v>304</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43865</v>
+      </c>
+      <c r="F65" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>155</v>
+      </c>
+      <c r="I65" t="s">
+        <v>305</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43865</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>131</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43866</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M67" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43866</v>
+      </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" t="s">
+        <v>306</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M68" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43866</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I69" t="s">
+        <v>307</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M69" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F70" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" t="s">
+        <v>308</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M70" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s">
+        <v>157</v>
+      </c>
+      <c r="I71" t="s">
+        <v>309</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M71" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" t="s">
+        <v>310</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M72" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43867</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s">
+        <v>169</v>
+      </c>
+      <c r="H74" t="s">
+        <v>164</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M74" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43868</v>
+      </c>
+      <c r="F75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" t="s">
+        <v>166</v>
+      </c>
+      <c r="H75" t="s">
+        <v>167</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M75" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43868</v>
+      </c>
+      <c r="F76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s">
+        <v>203</v>
+      </c>
+      <c r="I76" t="s">
+        <v>311</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M76" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43868</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s">
+        <v>168</v>
+      </c>
+      <c r="I77" t="s">
+        <v>312</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M77" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43868</v>
+      </c>
+      <c r="F78" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+      <c r="H78" t="s">
+        <v>171</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M78" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43869</v>
+      </c>
+      <c r="F79" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" t="s">
+        <v>313</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M79" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43869</v>
+      </c>
+      <c r="F80" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" t="s">
+        <v>174</v>
+      </c>
+      <c r="I80" t="s">
+        <v>314</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M80" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43870</v>
+      </c>
+      <c r="F81" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>201</v>
+      </c>
+      <c r="I81" t="s">
+        <v>315</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M81" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43870</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" t="s">
+        <v>316</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M82" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="G60" t="s">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43871</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>200</v>
+      </c>
+      <c r="I83" t="s">
+        <v>317</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M83" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43871</v>
+      </c>
+      <c r="F84" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s">
+        <v>176</v>
+      </c>
+      <c r="I84" t="s">
+        <v>318</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43872</v>
+      </c>
+      <c r="F85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s">
+        <v>173</v>
+      </c>
+      <c r="H85" t="s">
+        <v>177</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M85" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="H60" t="s">
-        <v>184</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43872</v>
+      </c>
+      <c r="F86" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s">
+        <v>199</v>
+      </c>
+      <c r="I86" t="s">
+        <v>319</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M86" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43872</v>
+      </c>
+      <c r="F87" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s">
+        <v>180</v>
+      </c>
+      <c r="I87" t="s">
+        <v>320</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M87" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="1">
+        <v>43873</v>
+      </c>
+      <c r="F88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s">
+        <v>179</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M88" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="1">
+        <v>43873</v>
+      </c>
+      <c r="F89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>198</v>
+      </c>
+      <c r="I89" t="s">
+        <v>321</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M89" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43873</v>
+      </c>
+      <c r="F90" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" t="s">
+        <v>322</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M90" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="1">
+        <v>43874</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" t="s">
         <v>185</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M60" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M61" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M62" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M63" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M64" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M65" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M66" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="67" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M67" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="68" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M68" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="69" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M69" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="70" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M70" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="71" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M71" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="72" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M72" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="73" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M73" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="74" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M74" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="75" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M75" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="76" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M76" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="77" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M77" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="78" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M78" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="79" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M79" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="80" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M80" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M81" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M82" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M83" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M84" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M85" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M86" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M87" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M88" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M89" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M90" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>186</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M91" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43874</v>
+      </c>
+      <c r="F92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s">
+        <v>195</v>
+      </c>
+      <c r="I92" t="s">
+        <v>323</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M92" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="1">
+        <v>43874</v>
+      </c>
+      <c r="F93" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" t="s">
+        <v>187</v>
+      </c>
+      <c r="I93" t="s">
+        <v>324</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M93" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="1">
+        <v>43874</v>
+      </c>
+      <c r="F94" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s">
+        <v>305</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M94" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="1">
+        <v>43875</v>
+      </c>
+      <c r="F95" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" t="s">
+        <v>131</v>
+      </c>
+      <c r="I95" t="s">
+        <v>325</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M95" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="96" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43875</v>
+      </c>
+      <c r="F96" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s">
+        <v>305</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M96" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" s="1">
+        <v>43875</v>
+      </c>
+      <c r="F97" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s">
+        <v>194</v>
+      </c>
+      <c r="I97" t="s">
+        <v>326</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M97" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="1">
+        <v>43876</v>
+      </c>
+      <c r="F98" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s">
+        <v>190</v>
+      </c>
+      <c r="I98" t="s">
+        <v>327</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M98" s="1">
         <v>43911</v>
       </c>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="1">
+        <v>43876</v>
+      </c>
+      <c r="F99" t="s">
+        <v>81</v>
+      </c>
+      <c r="G99" t="s">
+        <v>84</v>
+      </c>
+      <c r="H99" t="s">
+        <v>197</v>
+      </c>
+      <c r="I99" t="s">
+        <v>328</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="M99" s="1">
         <v>43911</v>
       </c>
     </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" s="1">
+        <v>43876</v>
+      </c>
+      <c r="F100" t="s">
+        <v>81</v>
+      </c>
+      <c r="G100" t="s">
+        <v>191</v>
+      </c>
+      <c r="H100" t="s">
+        <v>192</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M100" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="1">
+        <v>43877</v>
+      </c>
+      <c r="F101" t="s">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s">
+        <v>329</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M101" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="1">
+        <v>43877</v>
+      </c>
+      <c r="F102" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>196</v>
+      </c>
+      <c r="I102" t="s">
+        <v>330</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="1">
+        <v>43877</v>
+      </c>
+      <c r="F103" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>215</v>
+      </c>
+      <c r="I103" t="s">
+        <v>331</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="1">
+        <v>43878</v>
+      </c>
+      <c r="F104" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s">
+        <v>193</v>
+      </c>
+      <c r="I104" t="s">
+        <v>332</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M104" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="1">
+        <v>43878</v>
+      </c>
+      <c r="F105" t="s">
+        <v>81</v>
+      </c>
+      <c r="G105" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" t="s">
+        <v>216</v>
+      </c>
+      <c r="I105" t="s">
+        <v>333</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="1">
+        <v>43878</v>
+      </c>
+      <c r="F106" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" t="s">
+        <v>217</v>
+      </c>
+      <c r="I106" t="s">
+        <v>334</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M106" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" s="1">
+        <v>43879</v>
+      </c>
+      <c r="F107" t="s">
+        <v>81</v>
+      </c>
+      <c r="G107" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s">
+        <v>218</v>
+      </c>
+      <c r="I107" t="s">
+        <v>335</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M107" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="1">
+        <v>43879</v>
+      </c>
+      <c r="F108" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" t="s">
+        <v>84</v>
+      </c>
+      <c r="H108" t="s">
+        <v>219</v>
+      </c>
+      <c r="I108" t="s">
+        <v>336</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M108" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="1">
+        <v>43881</v>
+      </c>
+      <c r="F109" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H109" t="s">
+        <v>220</v>
+      </c>
+      <c r="I109" t="s">
+        <v>67</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M109" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" s="1">
+        <v>43880</v>
+      </c>
+      <c r="F110" t="s">
+        <v>81</v>
+      </c>
+      <c r="G110" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" t="s">
+        <v>132</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="1">
+        <v>43880</v>
+      </c>
+      <c r="F111" t="s">
+        <v>81</v>
+      </c>
+      <c r="G111" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s">
+        <v>225</v>
+      </c>
+      <c r="I111" t="s">
+        <v>280</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M111" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="1">
+        <v>43880</v>
+      </c>
+      <c r="F112" t="s">
+        <v>81</v>
+      </c>
+      <c r="G112" t="s">
+        <v>84</v>
+      </c>
+      <c r="H112" t="s">
+        <v>226</v>
+      </c>
+      <c r="I112" t="s">
+        <v>337</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M112" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="1">
+        <v>43880</v>
+      </c>
+      <c r="F113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>227</v>
+      </c>
+      <c r="I113" t="s">
+        <v>338</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M113" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="1">
+        <v>43881</v>
+      </c>
+      <c r="F114" t="s">
+        <v>81</v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114" t="s">
+        <v>305</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M114" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" s="1">
+        <v>43881</v>
+      </c>
+      <c r="F115" t="s">
+        <v>81</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>228</v>
+      </c>
+      <c r="I115" t="s">
+        <v>339</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M115" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" s="1">
+        <v>43881</v>
+      </c>
+      <c r="F116" t="s">
+        <v>81</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s">
+        <v>229</v>
+      </c>
+      <c r="I116" t="s">
+        <v>340</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M116" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="1">
+        <v>43882</v>
+      </c>
+      <c r="F117" t="s">
+        <v>81</v>
+      </c>
+      <c r="G117" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" t="s">
+        <v>230</v>
+      </c>
+      <c r="I117" t="s">
+        <v>341</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M117" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="1">
+        <v>43882</v>
+      </c>
+      <c r="F118" t="s">
+        <v>81</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>225</v>
+      </c>
+      <c r="I118" t="s">
+        <v>280</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M118" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" s="1">
+        <v>43882</v>
+      </c>
+      <c r="F119" t="s">
+        <v>81</v>
+      </c>
+      <c r="G119" t="s">
+        <v>79</v>
+      </c>
+      <c r="H119" t="s">
+        <v>231</v>
+      </c>
+      <c r="I119" t="s">
+        <v>342</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M119" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="1">
+        <v>43882</v>
+      </c>
+      <c r="F120" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" t="s">
+        <v>84</v>
+      </c>
+      <c r="H120" t="s">
+        <v>232</v>
+      </c>
+      <c r="I120" t="s">
+        <v>343</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M120" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43882</v>
+      </c>
+      <c r="F121" t="s">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s">
+        <v>131</v>
+      </c>
+      <c r="I121" t="s">
+        <v>344</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M121" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="4">
+        <v>43882</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M122" s="4">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="1">
+        <v>43883</v>
+      </c>
+      <c r="F123" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123" t="s">
+        <v>84</v>
+      </c>
+      <c r="H123" t="s">
+        <v>236</v>
+      </c>
+      <c r="I123" t="s">
+        <v>346</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M123" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1">
+        <v>43883</v>
+      </c>
+      <c r="F124" t="s">
+        <v>81</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>225</v>
+      </c>
+      <c r="I124" t="s">
+        <v>280</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M124" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" s="1">
+        <v>43883</v>
+      </c>
+      <c r="F125" t="s">
+        <v>81</v>
+      </c>
+      <c r="G125" t="s">
+        <v>84</v>
+      </c>
+      <c r="H125" t="s">
+        <v>238</v>
+      </c>
+      <c r="I125" t="s">
+        <v>347</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M125" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" s="1">
+        <v>43883</v>
+      </c>
+      <c r="F126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>237</v>
+      </c>
+      <c r="I126" t="s">
+        <v>348</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M126" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="1">
+        <v>43883</v>
+      </c>
+      <c r="F127" t="s">
+        <v>81</v>
+      </c>
+      <c r="G127" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" t="s">
+        <v>239</v>
+      </c>
+      <c r="I127" t="s">
+        <v>349</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" s="1">
+        <v>43883</v>
+      </c>
+      <c r="F128" t="s">
+        <v>81</v>
+      </c>
+      <c r="G128" t="s">
+        <v>84</v>
+      </c>
+      <c r="H128" t="s">
+        <v>240</v>
+      </c>
+      <c r="I128" t="s">
+        <v>350</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M128" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="D129" s="1">
+        <v>43884</v>
+      </c>
+      <c r="F129" t="s">
+        <v>69</v>
+      </c>
+      <c r="G129" t="s">
+        <v>112</v>
+      </c>
+      <c r="H129" t="s">
+        <v>241</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M129" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1">
+        <v>43884</v>
+      </c>
+      <c r="F130" t="s">
+        <v>81</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" t="s">
+        <v>242</v>
+      </c>
+      <c r="I130" t="s">
+        <v>281</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M130" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1">
+        <v>43884</v>
+      </c>
+      <c r="F131" t="s">
+        <v>104</v>
+      </c>
+      <c r="G131" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131" t="s">
+        <v>243</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M131" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F132" t="s">
+        <v>81</v>
+      </c>
+      <c r="G132" t="s">
+        <v>84</v>
+      </c>
+      <c r="H132" t="s">
+        <v>132</v>
+      </c>
+      <c r="I132" t="s">
+        <v>99</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M132" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>246</v>
+      </c>
+      <c r="D133" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F133" t="s">
+        <v>81</v>
+      </c>
+      <c r="G133" t="s">
+        <v>84</v>
+      </c>
+      <c r="H133" t="s">
+        <v>132</v>
+      </c>
+      <c r="I133" t="s">
+        <v>99</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M133" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F134" t="s">
+        <v>81</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>132</v>
+      </c>
+      <c r="I134" t="s">
+        <v>99</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M134" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>250</v>
+      </c>
+      <c r="D135" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F135" t="s">
+        <v>81</v>
+      </c>
+      <c r="G135" t="s">
+        <v>84</v>
+      </c>
+      <c r="H135" t="s">
+        <v>132</v>
+      </c>
+      <c r="I135" t="s">
+        <v>99</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M135" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F136" t="s">
+        <v>81</v>
+      </c>
+      <c r="G136" t="s">
+        <v>84</v>
+      </c>
+      <c r="H136" t="s">
+        <v>132</v>
+      </c>
+      <c r="I136" t="s">
+        <v>99</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M136" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F137" t="s">
+        <v>81</v>
+      </c>
+      <c r="G137" t="s">
+        <v>84</v>
+      </c>
+      <c r="H137" t="s">
+        <v>255</v>
+      </c>
+      <c r="I137" t="s">
+        <v>351</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M137" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F138" t="s">
+        <v>81</v>
+      </c>
+      <c r="G138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s">
+        <v>256</v>
+      </c>
+      <c r="I138" t="s">
+        <v>352</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M138" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F139" t="s">
+        <v>81</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>257</v>
+      </c>
+      <c r="I139" t="s">
+        <v>353</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M139" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F140" t="s">
+        <v>81</v>
+      </c>
+      <c r="G140" t="s">
+        <v>84</v>
+      </c>
+      <c r="H140" t="s">
+        <v>258</v>
+      </c>
+      <c r="I140" t="s">
+        <v>354</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M140" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1">
+        <v>43885</v>
+      </c>
+      <c r="F141" t="s">
+        <v>81</v>
+      </c>
+      <c r="G141" t="s">
+        <v>79</v>
+      </c>
+      <c r="H141" t="s">
+        <v>256</v>
+      </c>
+      <c r="I141" t="s">
+        <v>352</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M141" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" s="1">
+        <v>43886</v>
+      </c>
+      <c r="F142" t="s">
+        <v>81</v>
+      </c>
+      <c r="G142" t="s">
+        <v>84</v>
+      </c>
+      <c r="H142" t="s">
+        <v>259</v>
+      </c>
+      <c r="I142" t="s">
+        <v>355</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M142" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" s="1">
+        <v>43886</v>
+      </c>
+      <c r="F143" t="s">
+        <v>81</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>260</v>
+      </c>
+      <c r="I143" t="s">
+        <v>356</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M143" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>138</v>
+      </c>
+      <c r="B144">
+        <v>138</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" s="1">
+        <v>43886</v>
+      </c>
+      <c r="F144" t="s">
+        <v>81</v>
+      </c>
+      <c r="G144" t="s">
+        <v>79</v>
+      </c>
+      <c r="H144" t="s">
+        <v>261</v>
+      </c>
+      <c r="I144" t="s">
+        <v>357</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M144" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>139</v>
+      </c>
+      <c r="B145">
+        <v>139</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" s="1">
+        <v>43886</v>
+      </c>
+      <c r="F145" t="s">
+        <v>81</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" t="s">
+        <v>262</v>
+      </c>
+      <c r="I145" t="s">
+        <v>358</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M145" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="1">
+        <v>43886</v>
+      </c>
+      <c r="F146" t="s">
+        <v>81</v>
+      </c>
+      <c r="G146" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" t="s">
+        <v>263</v>
+      </c>
+      <c r="I146" t="s">
+        <v>359</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M146" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1">
+        <v>43886</v>
+      </c>
+      <c r="F147" t="s">
+        <v>81</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" t="s">
+        <v>264</v>
+      </c>
+      <c r="I147" t="s">
+        <v>360</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M147" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F148" t="s">
+        <v>81</v>
+      </c>
+      <c r="G148" t="s">
+        <v>79</v>
+      </c>
+      <c r="H148" t="s">
+        <v>265</v>
+      </c>
+      <c r="I148" t="s">
+        <v>361</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M148" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F149" t="s">
+        <v>81</v>
+      </c>
+      <c r="G149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" t="s">
+        <v>266</v>
+      </c>
+      <c r="I149" t="s">
+        <v>362</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M149" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F150" t="s">
+        <v>81</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>132</v>
+      </c>
+      <c r="I150" t="s">
+        <v>99</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M150" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F151" t="s">
+        <v>81</v>
+      </c>
+      <c r="G151" t="s">
+        <v>84</v>
+      </c>
+      <c r="H151" t="s">
+        <v>132</v>
+      </c>
+      <c r="I151" t="s">
+        <v>99</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M151" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>269</v>
+      </c>
+      <c r="D152" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F152" t="s">
+        <v>81</v>
+      </c>
+      <c r="G152" t="s">
+        <v>84</v>
+      </c>
+      <c r="H152" t="s">
+        <v>132</v>
+      </c>
+      <c r="I152" t="s">
+        <v>99</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M152" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>271</v>
+      </c>
+      <c r="D153" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F153" t="s">
+        <v>81</v>
+      </c>
+      <c r="G153" t="s">
+        <v>84</v>
+      </c>
+      <c r="H153" t="s">
+        <v>132</v>
+      </c>
+      <c r="I153" t="s">
+        <v>99</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M153" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>273</v>
+      </c>
+      <c r="D154" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F154" t="s">
+        <v>81</v>
+      </c>
+      <c r="G154" t="s">
+        <v>84</v>
+      </c>
+      <c r="H154" t="s">
+        <v>132</v>
+      </c>
+      <c r="I154" t="s">
+        <v>99</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M154" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D155" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F155" t="s">
+        <v>81</v>
+      </c>
+      <c r="G155" t="s">
+        <v>84</v>
+      </c>
+      <c r="H155" t="s">
+        <v>132</v>
+      </c>
+      <c r="I155" t="s">
+        <v>99</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M155" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>254</v>
+      </c>
+      <c r="D156" s="1">
+        <v>43887</v>
+      </c>
+      <c r="F156" t="s">
+        <v>81</v>
+      </c>
+      <c r="G156" t="s">
+        <v>84</v>
+      </c>
+      <c r="H156" t="s">
+        <v>132</v>
+      </c>
+      <c r="I156" t="s">
+        <v>99</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M156" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F157" t="s">
+        <v>81</v>
+      </c>
+      <c r="G157" t="s">
+        <v>84</v>
+      </c>
+      <c r="H157" t="s">
+        <v>132</v>
+      </c>
+      <c r="I157" t="s">
+        <v>99</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M157" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F158" t="s">
+        <v>81</v>
+      </c>
+      <c r="G158" t="s">
+        <v>84</v>
+      </c>
+      <c r="H158" t="s">
+        <v>132</v>
+      </c>
+      <c r="I158" t="s">
+        <v>99</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M158" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F159" t="s">
+        <v>81</v>
+      </c>
+      <c r="G159" t="s">
+        <v>84</v>
+      </c>
+      <c r="H159" t="s">
+        <v>132</v>
+      </c>
+      <c r="I159" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F160" t="s">
+        <v>81</v>
+      </c>
+      <c r="G160" t="s">
+        <v>84</v>
+      </c>
+      <c r="H160" t="s">
+        <v>132</v>
+      </c>
+      <c r="I160" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>106</v>
+      </c>
+      <c r="F161" t="s">
+        <v>81</v>
+      </c>
+      <c r="G161" t="s">
+        <v>84</v>
+      </c>
+      <c r="H161" t="s">
+        <v>278</v>
+      </c>
+      <c r="I161" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C1:C122" xr:uid="{FEBE9123-A6FD-4349-BCC9-7DAEDCC15514}"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{3C16743E-FB96-4E1A-AB85-5741C5C4837D}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{DCA54411-2475-41B6-9A87-99C3183173C6}"/>
@@ -2745,6 +6624,101 @@
     <hyperlink ref="L61" r:id="rId58" xr:uid="{6432EC6A-1C30-43BA-8ECB-63619A454214}"/>
     <hyperlink ref="L62" r:id="rId59" xr:uid="{951BB29A-7665-444B-8E13-6EA02F77CF9D}"/>
     <hyperlink ref="L63" r:id="rId60" xr:uid="{36B4E049-03C6-45CA-8E56-C4CA6EDB6D61}"/>
+    <hyperlink ref="L64" r:id="rId61" xr:uid="{9992ACDB-FBD6-4682-A26B-CC173638690B}"/>
+    <hyperlink ref="L65" r:id="rId62" xr:uid="{6C814A5F-926B-4806-9E5A-185F9795A8AD}"/>
+    <hyperlink ref="L66" r:id="rId63" xr:uid="{DA55E0C7-50A9-4BB1-8394-90612CC2EC37}"/>
+    <hyperlink ref="L67" r:id="rId64" xr:uid="{E9F40236-CD4F-4E8D-BF5E-7E833049C1C6}"/>
+    <hyperlink ref="L68" r:id="rId65" xr:uid="{FBEB110C-791C-4C6B-A3A5-E24FF944FE2D}"/>
+    <hyperlink ref="L69" r:id="rId66" xr:uid="{4A6F8F26-F3B0-48EB-9E36-CD86CAC93915}"/>
+    <hyperlink ref="L70" r:id="rId67" xr:uid="{A66781B2-1FC5-498E-A91F-F189AB5E7968}"/>
+    <hyperlink ref="L71" r:id="rId68" xr:uid="{38E34C05-633C-44C6-9662-4750E60484AE}"/>
+    <hyperlink ref="L72" r:id="rId69" xr:uid="{FE0295E9-94D5-4DC7-AF98-6DA47217D7D0}"/>
+    <hyperlink ref="L73" r:id="rId70" xr:uid="{06DF2F83-88A6-449C-B28F-3C134D41C558}"/>
+    <hyperlink ref="L74" r:id="rId71" xr:uid="{5485D62C-C3F2-41EA-BF41-6B797055A35F}"/>
+    <hyperlink ref="L75" r:id="rId72" xr:uid="{6ADD31F5-FE76-49D4-8104-A02C158B84DF}"/>
+    <hyperlink ref="L76" r:id="rId73" xr:uid="{986EDA82-CAF1-4046-81CD-E55192043A26}"/>
+    <hyperlink ref="L77" r:id="rId74" xr:uid="{112BA9B7-3582-4586-86FF-E513B1FD774D}"/>
+    <hyperlink ref="L78" r:id="rId75" xr:uid="{B8DDB6C2-CF59-4F55-A128-8FC460E0CEE4}"/>
+    <hyperlink ref="L79" r:id="rId76" xr:uid="{CE709831-306F-4B47-A1CD-C27F1D04266F}"/>
+    <hyperlink ref="L80" r:id="rId77" xr:uid="{4C54F905-D8C6-4B2E-8943-C9B27EB818A2}"/>
+    <hyperlink ref="L81" r:id="rId78" xr:uid="{FFFF7BD7-401A-4156-8C5E-EB09F00B1829}"/>
+    <hyperlink ref="L82" r:id="rId79" xr:uid="{E02DA36F-0EED-4783-A458-6F024A0C5543}"/>
+    <hyperlink ref="L83" r:id="rId80" xr:uid="{6483773C-B24F-4AE7-9601-2A15B49F365E}"/>
+    <hyperlink ref="L84" r:id="rId81" xr:uid="{4500A3F1-F90F-4739-A80F-3D6FEB38E5A2}"/>
+    <hyperlink ref="L85" r:id="rId82" xr:uid="{868D9225-8DA2-4B5F-956F-4808E55C17AA}"/>
+    <hyperlink ref="L86" r:id="rId83" xr:uid="{E0AFC9CD-BB4B-4938-ACA6-12168676A5C0}"/>
+    <hyperlink ref="L87" r:id="rId84" xr:uid="{2DA94908-DCCD-4CEB-B28C-B86F3E06ED85}"/>
+    <hyperlink ref="L88" r:id="rId85" xr:uid="{046B8DCE-5312-4B2E-8ECA-E6F1BC3751FE}"/>
+    <hyperlink ref="L89" r:id="rId86" xr:uid="{68D56F9F-858B-4D41-A3A9-F68435AA3FF6}"/>
+    <hyperlink ref="L90" r:id="rId87" xr:uid="{D9D1261A-7E7B-4183-9CAA-DA87F1218712}"/>
+    <hyperlink ref="L91" r:id="rId88" xr:uid="{10036F27-B0EC-4B69-B763-19970A708266}"/>
+    <hyperlink ref="L92" r:id="rId89" xr:uid="{270954E3-7949-4AD1-B28E-D2F7949B8005}"/>
+    <hyperlink ref="L93" r:id="rId90" xr:uid="{4CFF0B56-A457-4C16-9DA1-0777017A1F00}"/>
+    <hyperlink ref="L94" r:id="rId91" xr:uid="{2F0B761A-9BFC-4CE2-8E83-CB3B0CC8CF36}"/>
+    <hyperlink ref="L95" r:id="rId92" xr:uid="{794E7341-BDE7-4388-B6C7-4373A8A6F8CC}"/>
+    <hyperlink ref="L96" r:id="rId93" xr:uid="{32FB6B00-3E61-46F4-8029-FE3343BBF62A}"/>
+    <hyperlink ref="L97" r:id="rId94" xr:uid="{AF869895-2547-4852-9F56-6CFD4F8AB79C}"/>
+    <hyperlink ref="L98" r:id="rId95" xr:uid="{330FEBC3-7DCE-43F0-8F5E-7F2C40828DD0}"/>
+    <hyperlink ref="L99" r:id="rId96" xr:uid="{7C25A172-BC98-4C65-A291-AF7BDCEEE5AD}"/>
+    <hyperlink ref="L101" r:id="rId97" xr:uid="{793884E6-93B1-4BB5-B34D-AB9248403DDC}"/>
+    <hyperlink ref="L102" r:id="rId98" xr:uid="{98F2051D-5B52-4C88-B8F1-ABAD7CC14FE0}"/>
+    <hyperlink ref="L103" r:id="rId99" xr:uid="{79778209-B43C-4643-9559-EFA41393F18D}"/>
+    <hyperlink ref="L104" r:id="rId100" xr:uid="{3AD16CFE-849E-4915-B2F1-F609ACB95F17}"/>
+    <hyperlink ref="L105" r:id="rId101" xr:uid="{FF097E96-0A1B-4A1F-AEC7-1386EE177420}"/>
+    <hyperlink ref="L106" r:id="rId102" xr:uid="{53701C6C-E479-46C1-8BEF-9AAB7578731B}"/>
+    <hyperlink ref="L107" r:id="rId103" xr:uid="{2ED19BC5-B2A2-4D61-BE98-9162D61DF7AE}"/>
+    <hyperlink ref="L108" r:id="rId104" xr:uid="{8E9A3B67-7795-4474-8769-E54FD02DFC27}"/>
+    <hyperlink ref="L109" r:id="rId105" xr:uid="{B8849DCA-9EED-45E3-A751-C26642989720}"/>
+    <hyperlink ref="L110" r:id="rId106" xr:uid="{40F8281C-C803-45C1-811B-65CBBDB78D90}"/>
+    <hyperlink ref="L100" r:id="rId107" xr:uid="{AE0B97BA-49D3-45F3-8DB9-053C0932EA25}"/>
+    <hyperlink ref="L111" r:id="rId108" xr:uid="{4D167150-B5BC-40E5-8ACA-C5AEC3AF2231}"/>
+    <hyperlink ref="L112" r:id="rId109" xr:uid="{081575A8-D3B0-4E10-96A5-E13D70CBE231}"/>
+    <hyperlink ref="L113" r:id="rId110" xr:uid="{D4A5F1EC-A182-42BE-B826-53D6B9C586CD}"/>
+    <hyperlink ref="L114" r:id="rId111" xr:uid="{6806EB61-F3E7-438C-AF1A-640F1EA4215A}"/>
+    <hyperlink ref="L115" r:id="rId112" xr:uid="{BD66E2C5-E047-439C-98E7-2894B349A7D9}"/>
+    <hyperlink ref="L116" r:id="rId113" xr:uid="{C137EC48-4154-47EC-AEE9-5D916853DFF3}"/>
+    <hyperlink ref="L117" r:id="rId114" xr:uid="{8B2D3BAF-9BF4-4E49-8555-42F3325A9044}"/>
+    <hyperlink ref="L118" r:id="rId115" xr:uid="{645D1F3E-E24E-4D05-8459-50D11F1B1362}"/>
+    <hyperlink ref="L119" r:id="rId116" xr:uid="{395C4C2C-3FBE-4D53-892F-F4F2347E36FD}"/>
+    <hyperlink ref="L120" r:id="rId117" xr:uid="{4B3E987A-E57D-4AE4-B395-ADCBA3191132}"/>
+    <hyperlink ref="L121" r:id="rId118" xr:uid="{95A5A889-701B-4545-9A3E-6F5EE9C941E0}"/>
+    <hyperlink ref="L122" r:id="rId119" xr:uid="{EC3FAE8D-9875-497C-8E55-C2215CC5B0B0}"/>
+    <hyperlink ref="L123" r:id="rId120" xr:uid="{7BE90F72-445E-454E-B4EB-27029F098390}"/>
+    <hyperlink ref="L124" r:id="rId121" xr:uid="{4CB22FBB-B5A5-4505-9348-1B681A4CCD2F}"/>
+    <hyperlink ref="L125" r:id="rId122" xr:uid="{DCE456CA-44BE-41B3-9FDE-6CB687711836}"/>
+    <hyperlink ref="L126" r:id="rId123" xr:uid="{EA3F0089-8880-454F-B098-D7E2E9E56A02}"/>
+    <hyperlink ref="L127" r:id="rId124" xr:uid="{CDF2C053-6DC6-489E-B0B8-1F2BB5321BB6}"/>
+    <hyperlink ref="L128" r:id="rId125" xr:uid="{16EC32C5-5C0F-4A0C-9C4D-8B34BA83D6C8}"/>
+    <hyperlink ref="L129" r:id="rId126" xr:uid="{D60B803A-743B-4203-9EB8-9E9070882D35}"/>
+    <hyperlink ref="L130" r:id="rId127" xr:uid="{E43CC7C6-B9FA-4408-ABD3-229DA76D52BA}"/>
+    <hyperlink ref="L131" r:id="rId128" xr:uid="{411167BC-0EEB-47C3-9580-F7B31B4C6DA5}"/>
+    <hyperlink ref="L132" r:id="rId129" xr:uid="{07A16AA3-F9AE-47BE-A85D-52A4C83C3C46}"/>
+    <hyperlink ref="L133" r:id="rId130" xr:uid="{A31B1BFE-7C91-4A21-898F-827AB12B4DB9}"/>
+    <hyperlink ref="L134" r:id="rId131" xr:uid="{82862421-0C7E-4B77-90E1-498870B39DA4}"/>
+    <hyperlink ref="L135" r:id="rId132" xr:uid="{805690AE-D15F-4D1E-9B40-A5861E507294}"/>
+    <hyperlink ref="L136" r:id="rId133" xr:uid="{B216D342-090B-417B-B663-C80CF196EF97}"/>
+    <hyperlink ref="L137" r:id="rId134" xr:uid="{2DD7BC89-BD05-478B-8CF3-FD7D5454154A}"/>
+    <hyperlink ref="L138" r:id="rId135" xr:uid="{AAAC16E4-D7C5-44B0-B3BB-35D1395FCDAF}"/>
+    <hyperlink ref="L139" r:id="rId136" xr:uid="{063A5232-D399-4340-8DDE-FB7D1F68BBE2}"/>
+    <hyperlink ref="L140" r:id="rId137" xr:uid="{A1E50341-6B11-4760-B319-F13BCA89F11E}"/>
+    <hyperlink ref="L141" r:id="rId138" xr:uid="{874745CF-CFBD-4282-8DF1-A56B01093359}"/>
+    <hyperlink ref="L142" r:id="rId139" xr:uid="{7AAF33C2-BF47-4607-AB21-A287FF6260D0}"/>
+    <hyperlink ref="L143" r:id="rId140" xr:uid="{33CA3AE9-4018-44E4-B1F9-640415F092DC}"/>
+    <hyperlink ref="L146" r:id="rId141" xr:uid="{4E56EE8C-7B60-4916-888B-47B24752392D}"/>
+    <hyperlink ref="L147" r:id="rId142" xr:uid="{02ACD3AA-6D5E-48A5-B841-8D58CB3E690B}"/>
+    <hyperlink ref="L148" r:id="rId143" xr:uid="{E45867E8-7130-45C0-A634-2A75E347E531}"/>
+    <hyperlink ref="L149" r:id="rId144" xr:uid="{28D0A458-F098-43AB-8FE5-A67A34DD0BC1}"/>
+    <hyperlink ref="L144" r:id="rId145" xr:uid="{7BC68CF8-5A01-47DC-852E-3A474B71A4BD}"/>
+    <hyperlink ref="L145" r:id="rId146" xr:uid="{D980D1A9-4124-46CB-8A21-1075F5C89262}"/>
+    <hyperlink ref="L150" r:id="rId147" xr:uid="{2EE1C1D9-60C6-4933-90B8-FF8D6DB54BE0}"/>
+    <hyperlink ref="L151" r:id="rId148" xr:uid="{7E1F82D2-1487-42CA-8F49-8840CA00D9BD}"/>
+    <hyperlink ref="L152" r:id="rId149" xr:uid="{E9675B85-CCCC-41EC-A374-8B0EEB687ABF}"/>
+    <hyperlink ref="L153" r:id="rId150" xr:uid="{E8CD8B29-C864-43B7-BF17-29C62184BEA9}"/>
+    <hyperlink ref="L154" r:id="rId151" xr:uid="{B95D0080-64D2-4BCA-93D4-1F546B829CEF}"/>
+    <hyperlink ref="L155" r:id="rId152" xr:uid="{F36468A9-7021-46EC-AE95-EB51D2206B9A}"/>
+    <hyperlink ref="L156" r:id="rId153" xr:uid="{7AC1AF03-79E4-4622-B8E2-C18330DC3F9A}"/>
+    <hyperlink ref="L157" r:id="rId154" xr:uid="{609C026B-4ACB-4FF6-AC60-7FD4914093B9}"/>
+    <hyperlink ref="L158" r:id="rId155" xr:uid="{0F4685AB-B355-4755-BF99-0D9A14723E3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2770,47 +6744,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5E982-8B9C-4FA7-94A5-9ED6F96734F4}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2820,10 +6799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135DECB3-8050-4A31-957F-61CD3DC80792}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,351 +6815,487 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A38">
-    <sortCondition ref="A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A55">
+    <sortCondition ref="A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid19_events.xlsx
+++ b/covid19_events.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cganty\Documents\src\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FB315-2C75-4448-B45B-5AB8C5A684EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E07E9-EFD1-4DC6-B1C4-CEFCC4737666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10335" windowHeight="10920" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
     <sheet name="label" sheetId="2" r:id="rId2"/>
     <sheet name="iso2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="source" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">events!$C$1:$C$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">events!$C$1:$C$123</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="383">
   <si>
     <t>id</t>
   </si>
@@ -1129,6 +1129,63 @@
   </si>
   <si>
     <t>c82000o</t>
+  </si>
+  <si>
+    <t>over 2800 deaths</t>
+  </si>
+  <si>
+    <t>d2800o</t>
+  </si>
+  <si>
+    <t>650 positive-cases</t>
+  </si>
+  <si>
+    <t>c650</t>
+  </si>
+  <si>
+    <t>expand President rights for industrial production rise</t>
+  </si>
+  <si>
+    <t>2 positive-cases</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>3150 positive-cases</t>
+  </si>
+  <si>
+    <t>c3150</t>
+  </si>
+  <si>
+    <t>593 positive-cases</t>
+  </si>
+  <si>
+    <t>c593</t>
+  </si>
+  <si>
+    <t>43 deaths</t>
+  </si>
+  <si>
+    <t>d43</t>
+  </si>
+  <si>
+    <t>388 positive-cases</t>
+  </si>
+  <si>
+    <t>c388</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>3 positive-cases</t>
+  </si>
+  <si>
+    <t>c3</t>
   </si>
 </sst>
 </file>
@@ -1152,18 +1209,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1183,9 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1501,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82E1A5-1AF0-4B8D-AEC0-EAE4D7F581D4}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G146" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,10 +1627,10 @@
         <v>43830</v>
       </c>
       <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
       </c>
       <c r="H2" t="s">
         <v>73</v>
@@ -2232,7 +2283,9 @@
       <c r="L23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <v>43911</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2686,10 +2739,10 @@
       <c r="H38" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="L38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" s="4">
         <v>43911</v>
       </c>
     </row>
@@ -5317,67 +5370,64 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="4">
-        <v>43882</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="L122" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M122" s="4">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>81</v>
+      </c>
+      <c r="G122" t="s">
+        <v>84</v>
+      </c>
+      <c r="H122" t="s">
+        <v>381</v>
+      </c>
+      <c r="I122" t="s">
+        <v>382</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M122" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
-        <v>39</v>
-      </c>
-      <c r="D123" s="1">
-        <v>43883</v>
-      </c>
-      <c r="F123" t="s">
-        <v>81</v>
-      </c>
-      <c r="G123" t="s">
-        <v>84</v>
-      </c>
-      <c r="H123" t="s">
-        <v>236</v>
-      </c>
-      <c r="I123" t="s">
-        <v>346</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M123" s="1">
+      <c r="C123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="4">
+        <v>43882</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M123" s="4">
         <v>43911</v>
       </c>
     </row>
@@ -5389,7 +5439,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D124" s="1">
         <v>43883</v>
@@ -5398,13 +5448,13 @@
         <v>81</v>
       </c>
       <c r="G124" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H124" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="I124" t="s">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>71</v>
@@ -5421,7 +5471,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="D125" s="1">
         <v>43883</v>
@@ -5430,13 +5480,13 @@
         <v>81</v>
       </c>
       <c r="G125" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I125" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>71</v>
@@ -5462,13 +5512,13 @@
         <v>81</v>
       </c>
       <c r="G126" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I126" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>71</v>
@@ -5497,10 +5547,10 @@
         <v>79</v>
       </c>
       <c r="H127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I127" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>71</v>
@@ -5517,7 +5567,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="D128" s="1">
         <v>43883</v>
@@ -5526,13 +5576,13 @@
         <v>81</v>
       </c>
       <c r="G128" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I128" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>71</v>
@@ -5548,17 +5598,23 @@
       <c r="B129">
         <v>128</v>
       </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
       <c r="D129" s="1">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="F129" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H129" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="I129" t="s">
+        <v>350</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>71</v>
@@ -5574,23 +5630,17 @@
       <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
       <c r="D130" s="1">
         <v>43884</v>
       </c>
       <c r="F130" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H130" t="s">
-        <v>242</v>
-      </c>
-      <c r="I130" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>71</v>
@@ -5613,13 +5663,16 @@
         <v>43884</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H131" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="I131" t="s">
+        <v>281</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>71</v>
@@ -5636,22 +5689,19 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="F132" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H132" t="s">
-        <v>132</v>
-      </c>
-      <c r="I132" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>71</v>
@@ -5668,7 +5718,7 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D133" s="1">
         <v>43885</v>
@@ -5700,7 +5750,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D134" s="1">
         <v>43885</v>
@@ -5732,7 +5782,7 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D135" s="1">
         <v>43885</v>
@@ -5764,7 +5814,7 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D136" s="1">
         <v>43885</v>
@@ -5796,7 +5846,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="D137" s="1">
         <v>43885</v>
@@ -5808,10 +5858,10 @@
         <v>84</v>
       </c>
       <c r="H137" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="I137" t="s">
-        <v>351</v>
+        <v>99</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>71</v>
@@ -5837,13 +5887,13 @@
         <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>71</v>
@@ -5860,7 +5910,7 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D139" s="1">
         <v>43885</v>
@@ -5872,10 +5922,10 @@
         <v>79</v>
       </c>
       <c r="H139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I139" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>71</v>
@@ -5901,13 +5951,13 @@
         <v>81</v>
       </c>
       <c r="G140" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I140" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>71</v>
@@ -5924,7 +5974,7 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D141" s="1">
         <v>43885</v>
@@ -5933,13 +5983,13 @@
         <v>81</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I141" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>71</v>
@@ -5956,22 +6006,22 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="F142" t="s">
         <v>81</v>
       </c>
       <c r="G142" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H142" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I142" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>71</v>
@@ -5997,13 +6047,13 @@
         <v>81</v>
       </c>
       <c r="G143" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H143" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>71</v>
@@ -6014,13 +6064,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="D144" s="1">
         <v>43886</v>
@@ -6032,10 +6082,10 @@
         <v>79</v>
       </c>
       <c r="H144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I144" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>71</v>
@@ -6046,10 +6096,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -6061,13 +6111,13 @@
         <v>81</v>
       </c>
       <c r="G145" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>71</v>
@@ -6084,7 +6134,7 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D146" s="1">
         <v>43886</v>
@@ -6096,10 +6146,10 @@
         <v>84</v>
       </c>
       <c r="H146" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I146" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>71</v>
@@ -6116,7 +6166,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D147" s="1">
         <v>43886</v>
@@ -6128,10 +6178,10 @@
         <v>84</v>
       </c>
       <c r="H147" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I147" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>71</v>
@@ -6148,22 +6198,22 @@
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="F148" t="s">
         <v>81</v>
       </c>
       <c r="G148" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I148" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>71</v>
@@ -6189,13 +6239,13 @@
         <v>81</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I149" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>71</v>
@@ -6212,7 +6262,7 @@
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="D150" s="1">
         <v>43887</v>
@@ -6224,10 +6274,10 @@
         <v>84</v>
       </c>
       <c r="H150" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="I150" t="s">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>71</v>
@@ -6244,7 +6294,7 @@
         <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="D151" s="1">
         <v>43887</v>
@@ -6276,7 +6326,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="D152" s="1">
         <v>43887</v>
@@ -6308,7 +6358,7 @@
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D153" s="1">
         <v>43887</v>
@@ -6340,7 +6390,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D154" s="1">
         <v>43887</v>
@@ -6372,7 +6422,7 @@
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D155" s="1">
         <v>43887</v>
@@ -6404,7 +6454,7 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D156" s="1">
         <v>43887</v>
@@ -6436,10 +6486,10 @@
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="D157" s="1">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="F157" t="s">
         <v>81</v>
@@ -6468,7 +6518,7 @@
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D158" s="1">
         <v>43888</v>
@@ -6500,7 +6550,7 @@
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D159" s="1">
         <v>43888</v>
@@ -6516,6 +6566,12 @@
       </c>
       <c r="I159" t="s">
         <v>99</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M159" s="1">
+        <v>43911</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -6526,7 +6582,7 @@
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D160" s="1">
         <v>43888</v>
@@ -6543,26 +6599,661 @@
       <c r="I160" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L160" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M160" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
       <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F161" t="s">
+        <v>81</v>
+      </c>
+      <c r="G161" t="s">
+        <v>84</v>
+      </c>
+      <c r="H161" t="s">
+        <v>132</v>
+      </c>
+      <c r="I161" t="s">
+        <v>99</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M161" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
         <v>106</v>
       </c>
-      <c r="F161" t="s">
-        <v>81</v>
-      </c>
-      <c r="G161" t="s">
-        <v>84</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="D162" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F162" t="s">
+        <v>81</v>
+      </c>
+      <c r="G162" t="s">
+        <v>84</v>
+      </c>
+      <c r="H162" t="s">
         <v>278</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I162" t="s">
         <v>363</v>
       </c>
+      <c r="L162" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M162" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F163" t="s">
+        <v>81</v>
+      </c>
+      <c r="G163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H163" t="s">
+        <v>364</v>
+      </c>
+      <c r="I163" t="s">
+        <v>365</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M163" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F164" t="s">
+        <v>81</v>
+      </c>
+      <c r="G164" t="s">
+        <v>84</v>
+      </c>
+      <c r="H164" t="s">
+        <v>366</v>
+      </c>
+      <c r="I164" t="s">
+        <v>367</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M164" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F165" t="s">
+        <v>81</v>
+      </c>
+      <c r="G165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s">
+        <v>214</v>
+      </c>
+      <c r="I165" t="s">
+        <v>283</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M165" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>91</v>
+      </c>
+      <c r="D166" s="1">
+        <v>43888</v>
+      </c>
+      <c r="F166" t="s">
+        <v>165</v>
+      </c>
+      <c r="H166" t="s">
+        <v>368</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M166" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="1">
+        <v>43889</v>
+      </c>
+      <c r="F167" t="s">
+        <v>81</v>
+      </c>
+      <c r="G167" t="s">
+        <v>84</v>
+      </c>
+      <c r="H167" t="s">
+        <v>131</v>
+      </c>
+      <c r="I167" t="s">
+        <v>344</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M167" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="1">
+        <v>43889</v>
+      </c>
+      <c r="F168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G168" t="s">
+        <v>84</v>
+      </c>
+      <c r="H168" t="s">
+        <v>131</v>
+      </c>
+      <c r="I168" t="s">
+        <v>344</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M168" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="1">
+        <v>43889</v>
+      </c>
+      <c r="F169" t="s">
+        <v>81</v>
+      </c>
+      <c r="G169" t="s">
+        <v>84</v>
+      </c>
+      <c r="H169" t="s">
+        <v>369</v>
+      </c>
+      <c r="I169" t="s">
+        <v>370</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M169" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>271</v>
+      </c>
+      <c r="D170" s="1">
+        <v>43889</v>
+      </c>
+      <c r="F170" t="s">
+        <v>81</v>
+      </c>
+      <c r="G170" t="s">
+        <v>84</v>
+      </c>
+      <c r="H170" t="s">
+        <v>369</v>
+      </c>
+      <c r="I170" t="s">
+        <v>370</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M170" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>223</v>
+      </c>
+      <c r="D171" s="1">
+        <v>43889</v>
+      </c>
+      <c r="F171" t="s">
+        <v>81</v>
+      </c>
+      <c r="G171" t="s">
+        <v>84</v>
+      </c>
+      <c r="H171" t="s">
+        <v>377</v>
+      </c>
+      <c r="I171" t="s">
+        <v>378</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M171" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="1">
+        <v>43890</v>
+      </c>
+      <c r="F172" t="s">
+        <v>81</v>
+      </c>
+      <c r="G172" t="s">
+        <v>84</v>
+      </c>
+      <c r="H172" t="s">
+        <v>371</v>
+      </c>
+      <c r="I172" t="s">
+        <v>372</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M172" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" s="1">
+        <v>43890</v>
+      </c>
+      <c r="F173" t="s">
+        <v>81</v>
+      </c>
+      <c r="G173" t="s">
+        <v>79</v>
+      </c>
+      <c r="H173" t="s">
+        <v>214</v>
+      </c>
+      <c r="I173" t="s">
+        <v>283</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M173" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" s="1">
+        <v>43890</v>
+      </c>
+      <c r="F174" t="s">
+        <v>81</v>
+      </c>
+      <c r="G174" t="s">
+        <v>84</v>
+      </c>
+      <c r="H174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I174" t="s">
+        <v>374</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M174" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" s="1">
+        <v>43890</v>
+      </c>
+      <c r="F175" t="s">
+        <v>81</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>375</v>
+      </c>
+      <c r="I175" t="s">
+        <v>376</v>
+      </c>
+      <c r="L175" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M175" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>379</v>
+      </c>
+      <c r="D176" s="1">
+        <v>43890</v>
+      </c>
+      <c r="F176" t="s">
+        <v>81</v>
+      </c>
+      <c r="G176" t="s">
+        <v>84</v>
+      </c>
+      <c r="H176" t="s">
+        <v>131</v>
+      </c>
+      <c r="I176" t="s">
+        <v>344</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M176" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M177" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M178" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M179" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M180" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M181" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M182" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M183" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M184" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M185" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M186" s="1">
+        <v>43911</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C122" xr:uid="{FEBE9123-A6FD-4349-BCC9-7DAEDCC15514}"/>
+  <autoFilter ref="C1:C123" xr:uid="{FEBE9123-A6FD-4349-BCC9-7DAEDCC15514}"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{3C16743E-FB96-4E1A-AB85-5741C5C4837D}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{DCA54411-2475-41B6-9A87-99C3183173C6}"/>
@@ -6583,147 +7274,175 @@
     <hyperlink ref="L22" r:id="rId17" xr:uid="{3E8DF073-6CDA-487D-8FCF-9A2227382FCF}"/>
     <hyperlink ref="L17" r:id="rId18" xr:uid="{368BC015-78F8-4900-BF9D-3696F455A664}"/>
     <hyperlink ref="L18:L20" r:id="rId19" display="https://www.aljazeera.com/news/2020/01/timeline-china-coronavirus-spread-200126061554884.html" xr:uid="{5D786720-418A-41E3-86DA-F0ACF0A4CD27}"/>
-    <hyperlink ref="L23" r:id="rId20" xr:uid="{A3FE499D-BACD-43E8-9520-03A26BDD9DFA}"/>
-    <hyperlink ref="L24" r:id="rId21" xr:uid="{1D445D0C-2628-4734-BA96-9F93ADD15221}"/>
-    <hyperlink ref="L25" r:id="rId22" xr:uid="{724B156A-BA9A-41D7-BA6F-42F1A5B55B9C}"/>
-    <hyperlink ref="L26" r:id="rId23" xr:uid="{EF5531D8-D9DE-47F2-8F73-B6306AD4ED4E}"/>
-    <hyperlink ref="L27" r:id="rId24" xr:uid="{BB7ED08A-D40F-43AE-AE2F-31AD408DD5DA}"/>
-    <hyperlink ref="L28" r:id="rId25" xr:uid="{64969F41-CEC6-4488-84B5-7B077AF7B0D0}"/>
-    <hyperlink ref="L29" r:id="rId26" xr:uid="{B848F6AE-A7F3-43E8-82ED-2C7CF44CE1FE}"/>
-    <hyperlink ref="L30" r:id="rId27" xr:uid="{1BCBB0D9-0245-40C7-92B9-A26777719FC9}"/>
-    <hyperlink ref="L31" r:id="rId28" xr:uid="{A4C4CAD9-4C5B-4E96-9880-B44A33DA57D3}"/>
-    <hyperlink ref="L32" r:id="rId29" xr:uid="{606953EF-BD46-4D79-85EE-D33948099C1A}"/>
-    <hyperlink ref="L33" r:id="rId30" xr:uid="{C076FCC1-CC01-4B42-A97B-8C08A4D79D9A}"/>
-    <hyperlink ref="L34" r:id="rId31" xr:uid="{5B25595D-3CF0-4FB3-86FF-AE3DCA531396}"/>
-    <hyperlink ref="L35" r:id="rId32" xr:uid="{0893CF54-FEA5-44B5-863D-D173B528811E}"/>
-    <hyperlink ref="L36" r:id="rId33" xr:uid="{1846C43C-3397-4A95-BF9A-FF5DB964701E}"/>
-    <hyperlink ref="L37" r:id="rId34" xr:uid="{DBCA2D82-E818-4B29-8E05-DE72B02CB836}"/>
-    <hyperlink ref="L38" r:id="rId35" xr:uid="{D20FA874-C2DE-4074-ABA3-0BAD079F5204}"/>
-    <hyperlink ref="L39" r:id="rId36" xr:uid="{9AB19D0A-D0DE-48C3-9217-90E8557F96C3}"/>
-    <hyperlink ref="L40" r:id="rId37" xr:uid="{2859B84C-BADE-46BB-B99F-798697C7B12C}"/>
-    <hyperlink ref="L41" r:id="rId38" xr:uid="{1578FAD3-231A-4EE6-BA27-D420380601FC}"/>
-    <hyperlink ref="L42" r:id="rId39" xr:uid="{2FE05711-A7BC-4833-ABF1-E96246EABE80}"/>
-    <hyperlink ref="L43" r:id="rId40" xr:uid="{E6EE7F0C-B517-43B6-9E4E-876579DC87B0}"/>
-    <hyperlink ref="L44" r:id="rId41" xr:uid="{DB9C6FD0-E0FB-4099-B4E7-6B587ADA397B}"/>
-    <hyperlink ref="L45" r:id="rId42" xr:uid="{C9BABEB3-32DE-43A3-A707-3C8447B591F1}"/>
-    <hyperlink ref="L46" r:id="rId43" xr:uid="{30AFC5E4-787D-46E8-A31A-0CAA51D3D5DC}"/>
-    <hyperlink ref="L47" r:id="rId44" xr:uid="{00870976-7C06-4E52-A502-35DF8CFA42F3}"/>
-    <hyperlink ref="L48" r:id="rId45" xr:uid="{DA8D03FD-30FB-4019-886F-CB744E85694A}"/>
-    <hyperlink ref="L49" r:id="rId46" xr:uid="{23582090-EA83-4FB2-94C6-2EC749F91FE1}"/>
-    <hyperlink ref="L50" r:id="rId47" xr:uid="{EE569A5D-4C8F-4A5D-8478-9F29FD668AB5}"/>
-    <hyperlink ref="L51" r:id="rId48" xr:uid="{DCE06ED8-D784-42A2-A7E0-1DB7C34236A6}"/>
-    <hyperlink ref="L52" r:id="rId49" xr:uid="{A6679CCD-4F8B-4378-BC2B-CCAB238B1F83}"/>
-    <hyperlink ref="L53" r:id="rId50" xr:uid="{D3BB259B-4F45-4DF4-972A-010C3A1A020F}"/>
-    <hyperlink ref="L54" r:id="rId51" xr:uid="{AA6CDFCA-0F62-4629-8E12-82878C98604F}"/>
-    <hyperlink ref="L55" r:id="rId52" xr:uid="{474425BC-BC6C-4337-AB19-765C2BB9E1CC}"/>
-    <hyperlink ref="L56" r:id="rId53" xr:uid="{3F6E72F0-2EF3-4FC3-BA3D-A665B2525BA6}"/>
-    <hyperlink ref="L57" r:id="rId54" xr:uid="{FFE58A0A-B685-4267-A35A-A96FAE425585}"/>
-    <hyperlink ref="L58" r:id="rId55" xr:uid="{09B8B4B1-E9F6-4850-B2F9-9B95C56D0446}"/>
-    <hyperlink ref="L59" r:id="rId56" xr:uid="{307C1FF0-EC6E-4853-A8AC-A701736B64EA}"/>
-    <hyperlink ref="L60" r:id="rId57" xr:uid="{5C830347-0BE0-4D8A-A2EF-7452505571E9}"/>
-    <hyperlink ref="L61" r:id="rId58" xr:uid="{6432EC6A-1C30-43BA-8ECB-63619A454214}"/>
-    <hyperlink ref="L62" r:id="rId59" xr:uid="{951BB29A-7665-444B-8E13-6EA02F77CF9D}"/>
-    <hyperlink ref="L63" r:id="rId60" xr:uid="{36B4E049-03C6-45CA-8E56-C4CA6EDB6D61}"/>
-    <hyperlink ref="L64" r:id="rId61" xr:uid="{9992ACDB-FBD6-4682-A26B-CC173638690B}"/>
-    <hyperlink ref="L65" r:id="rId62" xr:uid="{6C814A5F-926B-4806-9E5A-185F9795A8AD}"/>
-    <hyperlink ref="L66" r:id="rId63" xr:uid="{DA55E0C7-50A9-4BB1-8394-90612CC2EC37}"/>
-    <hyperlink ref="L67" r:id="rId64" xr:uid="{E9F40236-CD4F-4E8D-BF5E-7E833049C1C6}"/>
-    <hyperlink ref="L68" r:id="rId65" xr:uid="{FBEB110C-791C-4C6B-A3A5-E24FF944FE2D}"/>
-    <hyperlink ref="L69" r:id="rId66" xr:uid="{4A6F8F26-F3B0-48EB-9E36-CD86CAC93915}"/>
-    <hyperlink ref="L70" r:id="rId67" xr:uid="{A66781B2-1FC5-498E-A91F-F189AB5E7968}"/>
-    <hyperlink ref="L71" r:id="rId68" xr:uid="{38E34C05-633C-44C6-9662-4750E60484AE}"/>
-    <hyperlink ref="L72" r:id="rId69" xr:uid="{FE0295E9-94D5-4DC7-AF98-6DA47217D7D0}"/>
-    <hyperlink ref="L73" r:id="rId70" xr:uid="{06DF2F83-88A6-449C-B28F-3C134D41C558}"/>
-    <hyperlink ref="L74" r:id="rId71" xr:uid="{5485D62C-C3F2-41EA-BF41-6B797055A35F}"/>
-    <hyperlink ref="L75" r:id="rId72" xr:uid="{6ADD31F5-FE76-49D4-8104-A02C158B84DF}"/>
-    <hyperlink ref="L76" r:id="rId73" xr:uid="{986EDA82-CAF1-4046-81CD-E55192043A26}"/>
-    <hyperlink ref="L77" r:id="rId74" xr:uid="{112BA9B7-3582-4586-86FF-E513B1FD774D}"/>
-    <hyperlink ref="L78" r:id="rId75" xr:uid="{B8DDB6C2-CF59-4F55-A128-8FC460E0CEE4}"/>
-    <hyperlink ref="L79" r:id="rId76" xr:uid="{CE709831-306F-4B47-A1CD-C27F1D04266F}"/>
-    <hyperlink ref="L80" r:id="rId77" xr:uid="{4C54F905-D8C6-4B2E-8943-C9B27EB818A2}"/>
-    <hyperlink ref="L81" r:id="rId78" xr:uid="{FFFF7BD7-401A-4156-8C5E-EB09F00B1829}"/>
-    <hyperlink ref="L82" r:id="rId79" xr:uid="{E02DA36F-0EED-4783-A458-6F024A0C5543}"/>
-    <hyperlink ref="L83" r:id="rId80" xr:uid="{6483773C-B24F-4AE7-9601-2A15B49F365E}"/>
-    <hyperlink ref="L84" r:id="rId81" xr:uid="{4500A3F1-F90F-4739-A80F-3D6FEB38E5A2}"/>
-    <hyperlink ref="L85" r:id="rId82" xr:uid="{868D9225-8DA2-4B5F-956F-4808E55C17AA}"/>
-    <hyperlink ref="L86" r:id="rId83" xr:uid="{E0AFC9CD-BB4B-4938-ACA6-12168676A5C0}"/>
-    <hyperlink ref="L87" r:id="rId84" xr:uid="{2DA94908-DCCD-4CEB-B28C-B86F3E06ED85}"/>
-    <hyperlink ref="L88" r:id="rId85" xr:uid="{046B8DCE-5312-4B2E-8ECA-E6F1BC3751FE}"/>
-    <hyperlink ref="L89" r:id="rId86" xr:uid="{68D56F9F-858B-4D41-A3A9-F68435AA3FF6}"/>
-    <hyperlink ref="L90" r:id="rId87" xr:uid="{D9D1261A-7E7B-4183-9CAA-DA87F1218712}"/>
-    <hyperlink ref="L91" r:id="rId88" xr:uid="{10036F27-B0EC-4B69-B763-19970A708266}"/>
-    <hyperlink ref="L92" r:id="rId89" xr:uid="{270954E3-7949-4AD1-B28E-D2F7949B8005}"/>
-    <hyperlink ref="L93" r:id="rId90" xr:uid="{4CFF0B56-A457-4C16-9DA1-0777017A1F00}"/>
-    <hyperlink ref="L94" r:id="rId91" xr:uid="{2F0B761A-9BFC-4CE2-8E83-CB3B0CC8CF36}"/>
-    <hyperlink ref="L95" r:id="rId92" xr:uid="{794E7341-BDE7-4388-B6C7-4373A8A6F8CC}"/>
-    <hyperlink ref="L96" r:id="rId93" xr:uid="{32FB6B00-3E61-46F4-8029-FE3343BBF62A}"/>
-    <hyperlink ref="L97" r:id="rId94" xr:uid="{AF869895-2547-4852-9F56-6CFD4F8AB79C}"/>
-    <hyperlink ref="L98" r:id="rId95" xr:uid="{330FEBC3-7DCE-43F0-8F5E-7F2C40828DD0}"/>
-    <hyperlink ref="L99" r:id="rId96" xr:uid="{7C25A172-BC98-4C65-A291-AF7BDCEEE5AD}"/>
-    <hyperlink ref="L101" r:id="rId97" xr:uid="{793884E6-93B1-4BB5-B34D-AB9248403DDC}"/>
-    <hyperlink ref="L102" r:id="rId98" xr:uid="{98F2051D-5B52-4C88-B8F1-ABAD7CC14FE0}"/>
-    <hyperlink ref="L103" r:id="rId99" xr:uid="{79778209-B43C-4643-9559-EFA41393F18D}"/>
-    <hyperlink ref="L104" r:id="rId100" xr:uid="{3AD16CFE-849E-4915-B2F1-F609ACB95F17}"/>
-    <hyperlink ref="L105" r:id="rId101" xr:uid="{FF097E96-0A1B-4A1F-AEC7-1386EE177420}"/>
-    <hyperlink ref="L106" r:id="rId102" xr:uid="{53701C6C-E479-46C1-8BEF-9AAB7578731B}"/>
-    <hyperlink ref="L107" r:id="rId103" xr:uid="{2ED19BC5-B2A2-4D61-BE98-9162D61DF7AE}"/>
-    <hyperlink ref="L108" r:id="rId104" xr:uid="{8E9A3B67-7795-4474-8769-E54FD02DFC27}"/>
-    <hyperlink ref="L109" r:id="rId105" xr:uid="{B8849DCA-9EED-45E3-A751-C26642989720}"/>
-    <hyperlink ref="L110" r:id="rId106" xr:uid="{40F8281C-C803-45C1-811B-65CBBDB78D90}"/>
-    <hyperlink ref="L100" r:id="rId107" xr:uid="{AE0B97BA-49D3-45F3-8DB9-053C0932EA25}"/>
-    <hyperlink ref="L111" r:id="rId108" xr:uid="{4D167150-B5BC-40E5-8ACA-C5AEC3AF2231}"/>
-    <hyperlink ref="L112" r:id="rId109" xr:uid="{081575A8-D3B0-4E10-96A5-E13D70CBE231}"/>
-    <hyperlink ref="L113" r:id="rId110" xr:uid="{D4A5F1EC-A182-42BE-B826-53D6B9C586CD}"/>
-    <hyperlink ref="L114" r:id="rId111" xr:uid="{6806EB61-F3E7-438C-AF1A-640F1EA4215A}"/>
-    <hyperlink ref="L115" r:id="rId112" xr:uid="{BD66E2C5-E047-439C-98E7-2894B349A7D9}"/>
-    <hyperlink ref="L116" r:id="rId113" xr:uid="{C137EC48-4154-47EC-AEE9-5D916853DFF3}"/>
-    <hyperlink ref="L117" r:id="rId114" xr:uid="{8B2D3BAF-9BF4-4E49-8555-42F3325A9044}"/>
-    <hyperlink ref="L118" r:id="rId115" xr:uid="{645D1F3E-E24E-4D05-8459-50D11F1B1362}"/>
-    <hyperlink ref="L119" r:id="rId116" xr:uid="{395C4C2C-3FBE-4D53-892F-F4F2347E36FD}"/>
-    <hyperlink ref="L120" r:id="rId117" xr:uid="{4B3E987A-E57D-4AE4-B395-ADCBA3191132}"/>
-    <hyperlink ref="L121" r:id="rId118" xr:uid="{95A5A889-701B-4545-9A3E-6F5EE9C941E0}"/>
-    <hyperlink ref="L122" r:id="rId119" xr:uid="{EC3FAE8D-9875-497C-8E55-C2215CC5B0B0}"/>
-    <hyperlink ref="L123" r:id="rId120" xr:uid="{7BE90F72-445E-454E-B4EB-27029F098390}"/>
-    <hyperlink ref="L124" r:id="rId121" xr:uid="{4CB22FBB-B5A5-4505-9348-1B681A4CCD2F}"/>
-    <hyperlink ref="L125" r:id="rId122" xr:uid="{DCE456CA-44BE-41B3-9FDE-6CB687711836}"/>
-    <hyperlink ref="L126" r:id="rId123" xr:uid="{EA3F0089-8880-454F-B098-D7E2E9E56A02}"/>
-    <hyperlink ref="L127" r:id="rId124" xr:uid="{CDF2C053-6DC6-489E-B0B8-1F2BB5321BB6}"/>
-    <hyperlink ref="L128" r:id="rId125" xr:uid="{16EC32C5-5C0F-4A0C-9C4D-8B34BA83D6C8}"/>
-    <hyperlink ref="L129" r:id="rId126" xr:uid="{D60B803A-743B-4203-9EB8-9E9070882D35}"/>
-    <hyperlink ref="L130" r:id="rId127" xr:uid="{E43CC7C6-B9FA-4408-ABD3-229DA76D52BA}"/>
-    <hyperlink ref="L131" r:id="rId128" xr:uid="{411167BC-0EEB-47C3-9580-F7B31B4C6DA5}"/>
-    <hyperlink ref="L132" r:id="rId129" xr:uid="{07A16AA3-F9AE-47BE-A85D-52A4C83C3C46}"/>
-    <hyperlink ref="L133" r:id="rId130" xr:uid="{A31B1BFE-7C91-4A21-898F-827AB12B4DB9}"/>
-    <hyperlink ref="L134" r:id="rId131" xr:uid="{82862421-0C7E-4B77-90E1-498870B39DA4}"/>
-    <hyperlink ref="L135" r:id="rId132" xr:uid="{805690AE-D15F-4D1E-9B40-A5861E507294}"/>
-    <hyperlink ref="L136" r:id="rId133" xr:uid="{B216D342-090B-417B-B663-C80CF196EF97}"/>
-    <hyperlink ref="L137" r:id="rId134" xr:uid="{2DD7BC89-BD05-478B-8CF3-FD7D5454154A}"/>
-    <hyperlink ref="L138" r:id="rId135" xr:uid="{AAAC16E4-D7C5-44B0-B3BB-35D1395FCDAF}"/>
-    <hyperlink ref="L139" r:id="rId136" xr:uid="{063A5232-D399-4340-8DDE-FB7D1F68BBE2}"/>
-    <hyperlink ref="L140" r:id="rId137" xr:uid="{A1E50341-6B11-4760-B319-F13BCA89F11E}"/>
-    <hyperlink ref="L141" r:id="rId138" xr:uid="{874745CF-CFBD-4282-8DF1-A56B01093359}"/>
-    <hyperlink ref="L142" r:id="rId139" xr:uid="{7AAF33C2-BF47-4607-AB21-A287FF6260D0}"/>
-    <hyperlink ref="L143" r:id="rId140" xr:uid="{33CA3AE9-4018-44E4-B1F9-640415F092DC}"/>
-    <hyperlink ref="L146" r:id="rId141" xr:uid="{4E56EE8C-7B60-4916-888B-47B24752392D}"/>
-    <hyperlink ref="L147" r:id="rId142" xr:uid="{02ACD3AA-6D5E-48A5-B841-8D58CB3E690B}"/>
-    <hyperlink ref="L148" r:id="rId143" xr:uid="{E45867E8-7130-45C0-A634-2A75E347E531}"/>
-    <hyperlink ref="L149" r:id="rId144" xr:uid="{28D0A458-F098-43AB-8FE5-A67A34DD0BC1}"/>
-    <hyperlink ref="L144" r:id="rId145" xr:uid="{7BC68CF8-5A01-47DC-852E-3A474B71A4BD}"/>
-    <hyperlink ref="L145" r:id="rId146" xr:uid="{D980D1A9-4124-46CB-8A21-1075F5C89262}"/>
-    <hyperlink ref="L150" r:id="rId147" xr:uid="{2EE1C1D9-60C6-4933-90B8-FF8D6DB54BE0}"/>
-    <hyperlink ref="L151" r:id="rId148" xr:uid="{7E1F82D2-1487-42CA-8F49-8840CA00D9BD}"/>
-    <hyperlink ref="L152" r:id="rId149" xr:uid="{E9675B85-CCCC-41EC-A374-8B0EEB687ABF}"/>
-    <hyperlink ref="L153" r:id="rId150" xr:uid="{E8CD8B29-C864-43B7-BF17-29C62184BEA9}"/>
-    <hyperlink ref="L154" r:id="rId151" xr:uid="{B95D0080-64D2-4BCA-93D4-1F546B829CEF}"/>
-    <hyperlink ref="L155" r:id="rId152" xr:uid="{F36468A9-7021-46EC-AE95-EB51D2206B9A}"/>
-    <hyperlink ref="L156" r:id="rId153" xr:uid="{7AC1AF03-79E4-4622-B8E2-C18330DC3F9A}"/>
-    <hyperlink ref="L157" r:id="rId154" xr:uid="{609C026B-4ACB-4FF6-AC60-7FD4914093B9}"/>
-    <hyperlink ref="L158" r:id="rId155" xr:uid="{0F4685AB-B355-4755-BF99-0D9A14723E3C}"/>
+    <hyperlink ref="L24" r:id="rId20" xr:uid="{1D445D0C-2628-4734-BA96-9F93ADD15221}"/>
+    <hyperlink ref="L25" r:id="rId21" xr:uid="{724B156A-BA9A-41D7-BA6F-42F1A5B55B9C}"/>
+    <hyperlink ref="L26" r:id="rId22" xr:uid="{EF5531D8-D9DE-47F2-8F73-B6306AD4ED4E}"/>
+    <hyperlink ref="L27" r:id="rId23" xr:uid="{BB7ED08A-D40F-43AE-AE2F-31AD408DD5DA}"/>
+    <hyperlink ref="L28" r:id="rId24" xr:uid="{64969F41-CEC6-4488-84B5-7B077AF7B0D0}"/>
+    <hyperlink ref="L29" r:id="rId25" xr:uid="{B848F6AE-A7F3-43E8-82ED-2C7CF44CE1FE}"/>
+    <hyperlink ref="L30" r:id="rId26" xr:uid="{1BCBB0D9-0245-40C7-92B9-A26777719FC9}"/>
+    <hyperlink ref="L31" r:id="rId27" xr:uid="{A4C4CAD9-4C5B-4E96-9880-B44A33DA57D3}"/>
+    <hyperlink ref="L32" r:id="rId28" xr:uid="{606953EF-BD46-4D79-85EE-D33948099C1A}"/>
+    <hyperlink ref="L33" r:id="rId29" xr:uid="{C076FCC1-CC01-4B42-A97B-8C08A4D79D9A}"/>
+    <hyperlink ref="L34" r:id="rId30" xr:uid="{5B25595D-3CF0-4FB3-86FF-AE3DCA531396}"/>
+    <hyperlink ref="L35" r:id="rId31" xr:uid="{0893CF54-FEA5-44B5-863D-D173B528811E}"/>
+    <hyperlink ref="L36" r:id="rId32" xr:uid="{1846C43C-3397-4A95-BF9A-FF5DB964701E}"/>
+    <hyperlink ref="L37" r:id="rId33" xr:uid="{DBCA2D82-E818-4B29-8E05-DE72B02CB836}"/>
+    <hyperlink ref="L38" r:id="rId34" xr:uid="{D20FA874-C2DE-4074-ABA3-0BAD079F5204}"/>
+    <hyperlink ref="L39" r:id="rId35" xr:uid="{9AB19D0A-D0DE-48C3-9217-90E8557F96C3}"/>
+    <hyperlink ref="L40" r:id="rId36" xr:uid="{2859B84C-BADE-46BB-B99F-798697C7B12C}"/>
+    <hyperlink ref="L41" r:id="rId37" xr:uid="{1578FAD3-231A-4EE6-BA27-D420380601FC}"/>
+    <hyperlink ref="L42" r:id="rId38" xr:uid="{2FE05711-A7BC-4833-ABF1-E96246EABE80}"/>
+    <hyperlink ref="L43" r:id="rId39" xr:uid="{E6EE7F0C-B517-43B6-9E4E-876579DC87B0}"/>
+    <hyperlink ref="L44" r:id="rId40" xr:uid="{DB9C6FD0-E0FB-4099-B4E7-6B587ADA397B}"/>
+    <hyperlink ref="L45" r:id="rId41" xr:uid="{C9BABEB3-32DE-43A3-A707-3C8447B591F1}"/>
+    <hyperlink ref="L46" r:id="rId42" xr:uid="{30AFC5E4-787D-46E8-A31A-0CAA51D3D5DC}"/>
+    <hyperlink ref="L47" r:id="rId43" xr:uid="{00870976-7C06-4E52-A502-35DF8CFA42F3}"/>
+    <hyperlink ref="L48" r:id="rId44" xr:uid="{DA8D03FD-30FB-4019-886F-CB744E85694A}"/>
+    <hyperlink ref="L49" r:id="rId45" xr:uid="{23582090-EA83-4FB2-94C6-2EC749F91FE1}"/>
+    <hyperlink ref="L50" r:id="rId46" xr:uid="{EE569A5D-4C8F-4A5D-8478-9F29FD668AB5}"/>
+    <hyperlink ref="L51" r:id="rId47" xr:uid="{DCE06ED8-D784-42A2-A7E0-1DB7C34236A6}"/>
+    <hyperlink ref="L52" r:id="rId48" xr:uid="{A6679CCD-4F8B-4378-BC2B-CCAB238B1F83}"/>
+    <hyperlink ref="L53" r:id="rId49" xr:uid="{D3BB259B-4F45-4DF4-972A-010C3A1A020F}"/>
+    <hyperlink ref="L54" r:id="rId50" xr:uid="{AA6CDFCA-0F62-4629-8E12-82878C98604F}"/>
+    <hyperlink ref="L55" r:id="rId51" xr:uid="{474425BC-BC6C-4337-AB19-765C2BB9E1CC}"/>
+    <hyperlink ref="L56" r:id="rId52" xr:uid="{3F6E72F0-2EF3-4FC3-BA3D-A665B2525BA6}"/>
+    <hyperlink ref="L57" r:id="rId53" xr:uid="{FFE58A0A-B685-4267-A35A-A96FAE425585}"/>
+    <hyperlink ref="L58" r:id="rId54" xr:uid="{09B8B4B1-E9F6-4850-B2F9-9B95C56D0446}"/>
+    <hyperlink ref="L59" r:id="rId55" xr:uid="{307C1FF0-EC6E-4853-A8AC-A701736B64EA}"/>
+    <hyperlink ref="L60" r:id="rId56" xr:uid="{5C830347-0BE0-4D8A-A2EF-7452505571E9}"/>
+    <hyperlink ref="L61" r:id="rId57" xr:uid="{6432EC6A-1C30-43BA-8ECB-63619A454214}"/>
+    <hyperlink ref="L62" r:id="rId58" xr:uid="{951BB29A-7665-444B-8E13-6EA02F77CF9D}"/>
+    <hyperlink ref="L63" r:id="rId59" xr:uid="{36B4E049-03C6-45CA-8E56-C4CA6EDB6D61}"/>
+    <hyperlink ref="L64" r:id="rId60" xr:uid="{9992ACDB-FBD6-4682-A26B-CC173638690B}"/>
+    <hyperlink ref="L65" r:id="rId61" xr:uid="{6C814A5F-926B-4806-9E5A-185F9795A8AD}"/>
+    <hyperlink ref="L66" r:id="rId62" xr:uid="{DA55E0C7-50A9-4BB1-8394-90612CC2EC37}"/>
+    <hyperlink ref="L67" r:id="rId63" xr:uid="{E9F40236-CD4F-4E8D-BF5E-7E833049C1C6}"/>
+    <hyperlink ref="L68" r:id="rId64" xr:uid="{FBEB110C-791C-4C6B-A3A5-E24FF944FE2D}"/>
+    <hyperlink ref="L69" r:id="rId65" xr:uid="{4A6F8F26-F3B0-48EB-9E36-CD86CAC93915}"/>
+    <hyperlink ref="L70" r:id="rId66" xr:uid="{A66781B2-1FC5-498E-A91F-F189AB5E7968}"/>
+    <hyperlink ref="L71" r:id="rId67" xr:uid="{38E34C05-633C-44C6-9662-4750E60484AE}"/>
+    <hyperlink ref="L72" r:id="rId68" xr:uid="{FE0295E9-94D5-4DC7-AF98-6DA47217D7D0}"/>
+    <hyperlink ref="L73" r:id="rId69" xr:uid="{06DF2F83-88A6-449C-B28F-3C134D41C558}"/>
+    <hyperlink ref="L74" r:id="rId70" xr:uid="{5485D62C-C3F2-41EA-BF41-6B797055A35F}"/>
+    <hyperlink ref="L75" r:id="rId71" xr:uid="{6ADD31F5-FE76-49D4-8104-A02C158B84DF}"/>
+    <hyperlink ref="L76" r:id="rId72" xr:uid="{986EDA82-CAF1-4046-81CD-E55192043A26}"/>
+    <hyperlink ref="L77" r:id="rId73" xr:uid="{112BA9B7-3582-4586-86FF-E513B1FD774D}"/>
+    <hyperlink ref="L78" r:id="rId74" xr:uid="{B8DDB6C2-CF59-4F55-A128-8FC460E0CEE4}"/>
+    <hyperlink ref="L79" r:id="rId75" xr:uid="{CE709831-306F-4B47-A1CD-C27F1D04266F}"/>
+    <hyperlink ref="L80" r:id="rId76" xr:uid="{4C54F905-D8C6-4B2E-8943-C9B27EB818A2}"/>
+    <hyperlink ref="L81" r:id="rId77" xr:uid="{FFFF7BD7-401A-4156-8C5E-EB09F00B1829}"/>
+    <hyperlink ref="L82" r:id="rId78" xr:uid="{E02DA36F-0EED-4783-A458-6F024A0C5543}"/>
+    <hyperlink ref="L83" r:id="rId79" xr:uid="{6483773C-B24F-4AE7-9601-2A15B49F365E}"/>
+    <hyperlink ref="L84" r:id="rId80" xr:uid="{4500A3F1-F90F-4739-A80F-3D6FEB38E5A2}"/>
+    <hyperlink ref="L85" r:id="rId81" xr:uid="{868D9225-8DA2-4B5F-956F-4808E55C17AA}"/>
+    <hyperlink ref="L86" r:id="rId82" xr:uid="{E0AFC9CD-BB4B-4938-ACA6-12168676A5C0}"/>
+    <hyperlink ref="L87" r:id="rId83" xr:uid="{2DA94908-DCCD-4CEB-B28C-B86F3E06ED85}"/>
+    <hyperlink ref="L88" r:id="rId84" xr:uid="{046B8DCE-5312-4B2E-8ECA-E6F1BC3751FE}"/>
+    <hyperlink ref="L89" r:id="rId85" xr:uid="{68D56F9F-858B-4D41-A3A9-F68435AA3FF6}"/>
+    <hyperlink ref="L90" r:id="rId86" xr:uid="{D9D1261A-7E7B-4183-9CAA-DA87F1218712}"/>
+    <hyperlink ref="L91" r:id="rId87" xr:uid="{10036F27-B0EC-4B69-B763-19970A708266}"/>
+    <hyperlink ref="L92" r:id="rId88" xr:uid="{270954E3-7949-4AD1-B28E-D2F7949B8005}"/>
+    <hyperlink ref="L93" r:id="rId89" xr:uid="{4CFF0B56-A457-4C16-9DA1-0777017A1F00}"/>
+    <hyperlink ref="L94" r:id="rId90" xr:uid="{2F0B761A-9BFC-4CE2-8E83-CB3B0CC8CF36}"/>
+    <hyperlink ref="L95" r:id="rId91" xr:uid="{794E7341-BDE7-4388-B6C7-4373A8A6F8CC}"/>
+    <hyperlink ref="L96" r:id="rId92" xr:uid="{32FB6B00-3E61-46F4-8029-FE3343BBF62A}"/>
+    <hyperlink ref="L97" r:id="rId93" xr:uid="{AF869895-2547-4852-9F56-6CFD4F8AB79C}"/>
+    <hyperlink ref="L98" r:id="rId94" xr:uid="{330FEBC3-7DCE-43F0-8F5E-7F2C40828DD0}"/>
+    <hyperlink ref="L99" r:id="rId95" xr:uid="{7C25A172-BC98-4C65-A291-AF7BDCEEE5AD}"/>
+    <hyperlink ref="L101" r:id="rId96" xr:uid="{793884E6-93B1-4BB5-B34D-AB9248403DDC}"/>
+    <hyperlink ref="L102" r:id="rId97" xr:uid="{98F2051D-5B52-4C88-B8F1-ABAD7CC14FE0}"/>
+    <hyperlink ref="L103" r:id="rId98" xr:uid="{79778209-B43C-4643-9559-EFA41393F18D}"/>
+    <hyperlink ref="L104" r:id="rId99" xr:uid="{3AD16CFE-849E-4915-B2F1-F609ACB95F17}"/>
+    <hyperlink ref="L105" r:id="rId100" xr:uid="{FF097E96-0A1B-4A1F-AEC7-1386EE177420}"/>
+    <hyperlink ref="L106" r:id="rId101" xr:uid="{53701C6C-E479-46C1-8BEF-9AAB7578731B}"/>
+    <hyperlink ref="L107" r:id="rId102" xr:uid="{2ED19BC5-B2A2-4D61-BE98-9162D61DF7AE}"/>
+    <hyperlink ref="L108" r:id="rId103" xr:uid="{8E9A3B67-7795-4474-8769-E54FD02DFC27}"/>
+    <hyperlink ref="L109" r:id="rId104" xr:uid="{B8849DCA-9EED-45E3-A751-C26642989720}"/>
+    <hyperlink ref="L110" r:id="rId105" xr:uid="{40F8281C-C803-45C1-811B-65CBBDB78D90}"/>
+    <hyperlink ref="L100" r:id="rId106" xr:uid="{AE0B97BA-49D3-45F3-8DB9-053C0932EA25}"/>
+    <hyperlink ref="L111" r:id="rId107" xr:uid="{4D167150-B5BC-40E5-8ACA-C5AEC3AF2231}"/>
+    <hyperlink ref="L112" r:id="rId108" xr:uid="{081575A8-D3B0-4E10-96A5-E13D70CBE231}"/>
+    <hyperlink ref="L113" r:id="rId109" xr:uid="{D4A5F1EC-A182-42BE-B826-53D6B9C586CD}"/>
+    <hyperlink ref="L114" r:id="rId110" xr:uid="{6806EB61-F3E7-438C-AF1A-640F1EA4215A}"/>
+    <hyperlink ref="L115" r:id="rId111" xr:uid="{BD66E2C5-E047-439C-98E7-2894B349A7D9}"/>
+    <hyperlink ref="L116" r:id="rId112" xr:uid="{C137EC48-4154-47EC-AEE9-5D916853DFF3}"/>
+    <hyperlink ref="L117" r:id="rId113" xr:uid="{8B2D3BAF-9BF4-4E49-8555-42F3325A9044}"/>
+    <hyperlink ref="L118" r:id="rId114" xr:uid="{645D1F3E-E24E-4D05-8459-50D11F1B1362}"/>
+    <hyperlink ref="L119" r:id="rId115" xr:uid="{395C4C2C-3FBE-4D53-892F-F4F2347E36FD}"/>
+    <hyperlink ref="L120" r:id="rId116" xr:uid="{4B3E987A-E57D-4AE4-B395-ADCBA3191132}"/>
+    <hyperlink ref="L121" r:id="rId117" xr:uid="{95A5A889-701B-4545-9A3E-6F5EE9C941E0}"/>
+    <hyperlink ref="L123" r:id="rId118" xr:uid="{EC3FAE8D-9875-497C-8E55-C2215CC5B0B0}"/>
+    <hyperlink ref="L124" r:id="rId119" xr:uid="{7BE90F72-445E-454E-B4EB-27029F098390}"/>
+    <hyperlink ref="L125" r:id="rId120" xr:uid="{4CB22FBB-B5A5-4505-9348-1B681A4CCD2F}"/>
+    <hyperlink ref="L126" r:id="rId121" xr:uid="{DCE456CA-44BE-41B3-9FDE-6CB687711836}"/>
+    <hyperlink ref="L127" r:id="rId122" xr:uid="{EA3F0089-8880-454F-B098-D7E2E9E56A02}"/>
+    <hyperlink ref="L128" r:id="rId123" xr:uid="{CDF2C053-6DC6-489E-B0B8-1F2BB5321BB6}"/>
+    <hyperlink ref="L129" r:id="rId124" xr:uid="{16EC32C5-5C0F-4A0C-9C4D-8B34BA83D6C8}"/>
+    <hyperlink ref="L130" r:id="rId125" xr:uid="{D60B803A-743B-4203-9EB8-9E9070882D35}"/>
+    <hyperlink ref="L131" r:id="rId126" xr:uid="{E43CC7C6-B9FA-4408-ABD3-229DA76D52BA}"/>
+    <hyperlink ref="L132" r:id="rId127" xr:uid="{411167BC-0EEB-47C3-9580-F7B31B4C6DA5}"/>
+    <hyperlink ref="L133" r:id="rId128" xr:uid="{07A16AA3-F9AE-47BE-A85D-52A4C83C3C46}"/>
+    <hyperlink ref="L134" r:id="rId129" xr:uid="{A31B1BFE-7C91-4A21-898F-827AB12B4DB9}"/>
+    <hyperlink ref="L135" r:id="rId130" xr:uid="{82862421-0C7E-4B77-90E1-498870B39DA4}"/>
+    <hyperlink ref="L136" r:id="rId131" xr:uid="{805690AE-D15F-4D1E-9B40-A5861E507294}"/>
+    <hyperlink ref="L137" r:id="rId132" xr:uid="{B216D342-090B-417B-B663-C80CF196EF97}"/>
+    <hyperlink ref="L138" r:id="rId133" xr:uid="{2DD7BC89-BD05-478B-8CF3-FD7D5454154A}"/>
+    <hyperlink ref="L139" r:id="rId134" xr:uid="{AAAC16E4-D7C5-44B0-B3BB-35D1395FCDAF}"/>
+    <hyperlink ref="L140" r:id="rId135" xr:uid="{063A5232-D399-4340-8DDE-FB7D1F68BBE2}"/>
+    <hyperlink ref="L141" r:id="rId136" xr:uid="{A1E50341-6B11-4760-B319-F13BCA89F11E}"/>
+    <hyperlink ref="L142" r:id="rId137" xr:uid="{874745CF-CFBD-4282-8DF1-A56B01093359}"/>
+    <hyperlink ref="L143" r:id="rId138" xr:uid="{7AAF33C2-BF47-4607-AB21-A287FF6260D0}"/>
+    <hyperlink ref="L144" r:id="rId139" xr:uid="{33CA3AE9-4018-44E4-B1F9-640415F092DC}"/>
+    <hyperlink ref="L147" r:id="rId140" xr:uid="{4E56EE8C-7B60-4916-888B-47B24752392D}"/>
+    <hyperlink ref="L148" r:id="rId141" xr:uid="{02ACD3AA-6D5E-48A5-B841-8D58CB3E690B}"/>
+    <hyperlink ref="L149" r:id="rId142" xr:uid="{E45867E8-7130-45C0-A634-2A75E347E531}"/>
+    <hyperlink ref="L150" r:id="rId143" xr:uid="{28D0A458-F098-43AB-8FE5-A67A34DD0BC1}"/>
+    <hyperlink ref="L145" r:id="rId144" xr:uid="{7BC68CF8-5A01-47DC-852E-3A474B71A4BD}"/>
+    <hyperlink ref="L146" r:id="rId145" xr:uid="{D980D1A9-4124-46CB-8A21-1075F5C89262}"/>
+    <hyperlink ref="L151" r:id="rId146" xr:uid="{2EE1C1D9-60C6-4933-90B8-FF8D6DB54BE0}"/>
+    <hyperlink ref="L152" r:id="rId147" xr:uid="{7E1F82D2-1487-42CA-8F49-8840CA00D9BD}"/>
+    <hyperlink ref="L153" r:id="rId148" xr:uid="{E9675B85-CCCC-41EC-A374-8B0EEB687ABF}"/>
+    <hyperlink ref="L154" r:id="rId149" xr:uid="{E8CD8B29-C864-43B7-BF17-29C62184BEA9}"/>
+    <hyperlink ref="L155" r:id="rId150" xr:uid="{B95D0080-64D2-4BCA-93D4-1F546B829CEF}"/>
+    <hyperlink ref="L156" r:id="rId151" xr:uid="{F36468A9-7021-46EC-AE95-EB51D2206B9A}"/>
+    <hyperlink ref="L157" r:id="rId152" xr:uid="{7AC1AF03-79E4-4622-B8E2-C18330DC3F9A}"/>
+    <hyperlink ref="L158" r:id="rId153" xr:uid="{609C026B-4ACB-4FF6-AC60-7FD4914093B9}"/>
+    <hyperlink ref="L159" r:id="rId154" xr:uid="{0F4685AB-B355-4755-BF99-0D9A14723E3C}"/>
+    <hyperlink ref="L160" r:id="rId155" xr:uid="{92DBA903-68A3-4B3F-B387-C603065FD408}"/>
+    <hyperlink ref="L161" r:id="rId156" xr:uid="{98210422-88A9-4BBC-A502-66D790D14B92}"/>
+    <hyperlink ref="L162" r:id="rId157" xr:uid="{54696E6F-468E-4145-9AC3-2346E9B34D9B}"/>
+    <hyperlink ref="L163" r:id="rId158" xr:uid="{54556323-7EFA-4D01-81E1-E0A37279D3F7}"/>
+    <hyperlink ref="L164" r:id="rId159" xr:uid="{5BFE94AB-E6AA-4365-BD55-6FBB9850CFDA}"/>
+    <hyperlink ref="L165" r:id="rId160" xr:uid="{19004F54-7141-4C2E-9690-41618876FA29}"/>
+    <hyperlink ref="L166" r:id="rId161" xr:uid="{31BF8CD1-77DC-4417-A338-C593039BFD40}"/>
+    <hyperlink ref="L167" r:id="rId162" xr:uid="{281861A6-0E5B-4881-AA22-D154A05A4E68}"/>
+    <hyperlink ref="L168" r:id="rId163" xr:uid="{4CB61E3D-8D7C-4CA4-A55F-641C3BC3AE7C}"/>
+    <hyperlink ref="L169" r:id="rId164" xr:uid="{00CFECC1-5DFA-4609-A1CD-B71ED5EA1CBF}"/>
+    <hyperlink ref="L170" r:id="rId165" xr:uid="{BFEB6BC8-ECDC-4C0A-B8D1-BF1A847D8069}"/>
+    <hyperlink ref="L171" r:id="rId166" xr:uid="{539A4AEF-AC57-43A0-9020-C812FF490F7D}"/>
+    <hyperlink ref="L172" r:id="rId167" xr:uid="{EE7654BB-8779-4675-8E24-3CA6DFB97FD1}"/>
+    <hyperlink ref="L173" r:id="rId168" xr:uid="{3A0A7DD4-AB2E-43D3-B4F7-69532B719301}"/>
+    <hyperlink ref="L174" r:id="rId169" xr:uid="{0B00404E-0A5F-44A6-BA11-A14521DFA0BB}"/>
+    <hyperlink ref="L175" r:id="rId170" xr:uid="{34BD48A1-CB66-49F8-94E4-886C55257C47}"/>
+    <hyperlink ref="L176" r:id="rId171" xr:uid="{21516EE5-F78A-4CBA-9D6F-635952297241}"/>
+    <hyperlink ref="L177" r:id="rId172" xr:uid="{6E0815BE-46FE-48A8-A9C7-4814D813173A}"/>
+    <hyperlink ref="L178" r:id="rId173" xr:uid="{65F14255-10F7-47A5-A769-0EE75C8B2558}"/>
+    <hyperlink ref="L179" r:id="rId174" xr:uid="{A47E2FAC-4C8C-4097-BD2A-5B1C05BA38B6}"/>
+    <hyperlink ref="L180" r:id="rId175" xr:uid="{0BF73651-8407-4BD9-8ED4-262BB68D10D3}"/>
+    <hyperlink ref="L181" r:id="rId176" xr:uid="{B58C3235-C3DF-4479-A53C-805B95F35C30}"/>
+    <hyperlink ref="L182" r:id="rId177" xr:uid="{F965C7E3-2B53-4324-972E-8980AE14E4D7}"/>
+    <hyperlink ref="L183" r:id="rId178" xr:uid="{58257C62-A81D-446F-B18B-BEF9952F0375}"/>
+    <hyperlink ref="L184" r:id="rId179" xr:uid="{C785A14B-E96C-481B-A138-8C5C0E1F820E}"/>
+    <hyperlink ref="L185" r:id="rId180" xr:uid="{B72CF05A-AA5F-4D93-8125-E83FBD0B8291}"/>
+    <hyperlink ref="L186" r:id="rId181" xr:uid="{AE08C09D-6270-4E2E-9309-581447E4C254}"/>
+    <hyperlink ref="L23" r:id="rId182" xr:uid="{869BD461-8399-4E46-AB5F-BF7FEC22AA98}"/>
+    <hyperlink ref="L122" r:id="rId183" xr:uid="{16C37BC8-D542-42B7-9EE6-2CF4FC678B9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71771692-E9E6-45F5-A721-173C71C0A55B}">
           <x14:formula1>
             <xm:f>label!$A:$A</xm:f>
@@ -6736,6 +7455,12 @@
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{142E1B15-4840-422A-BD0C-26D5C3B0A896}">
+          <x14:formula1>
+            <xm:f>source!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -6744,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5E982-8B9C-4FA7-94A5-9ED6F96734F4}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,36 +7484,31 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6799,10 +7519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135DECB3-8050-4A31-957F-61CD3DC80792}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7207,94 +7927,102 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>106</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A56">
     <sortCondition ref="A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7306,11 +8034,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/covid19_events.xlsx
+++ b/covid19_events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cganty\Documents\src\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E07E9-EFD1-4DC6-B1C4-CEFCC4737666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B4A88-19C6-4EA2-8FAB-A523E2EE314A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10335" windowHeight="10920" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="402">
   <si>
     <t>id</t>
   </si>
@@ -1186,6 +1186,63 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>first positive-case, travelling from IR to AS through BH</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>77 deaths</t>
+  </si>
+  <si>
+    <t>d77</t>
+  </si>
+  <si>
+    <t>nearly 3500 deaths</t>
+  </si>
+  <si>
+    <t>102000 positive-cases</t>
+  </si>
+  <si>
+    <t>c102000</t>
+  </si>
+  <si>
+    <t>d3500l</t>
+  </si>
+  <si>
+    <t>80651 positive-cases</t>
+  </si>
+  <si>
+    <t>c80651</t>
+  </si>
+  <si>
+    <t>80552 positive-cases</t>
+  </si>
+  <si>
+    <t>c80552</t>
+  </si>
+  <si>
+    <t>80409 positive-cases</t>
+  </si>
+  <si>
+    <t>c80409</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82E1A5-1AF0-4B8D-AEC0-EAE4D7F581D4}">
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,12 +1671,6 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
@@ -1643,12 +1694,6 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -1672,12 +1717,6 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -1701,12 +1740,6 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
         <v>68</v>
       </c>
@@ -1730,12 +1763,6 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
@@ -1762,12 +1789,6 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
@@ -1794,12 +1815,6 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
       <c r="C8" t="s">
         <v>85</v>
       </c>
@@ -1826,12 +1841,6 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
       <c r="C9" t="s">
         <v>68</v>
       </c>
@@ -1858,12 +1867,6 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
@@ -1887,12 +1890,6 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
@@ -1919,12 +1916,6 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
@@ -1951,12 +1942,6 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
@@ -1980,12 +1965,6 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -2012,12 +1991,6 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
       <c r="C15" t="s">
         <v>68</v>
       </c>
@@ -2044,12 +2017,6 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
         <v>68</v>
       </c>
@@ -2075,13 +2042,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>68</v>
       </c>
@@ -2107,13 +2068,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>68</v>
       </c>
@@ -2136,13 +2091,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>106</v>
       </c>
@@ -2165,13 +2114,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>68</v>
       </c>
@@ -2197,13 +2140,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>68</v>
       </c>
@@ -2229,13 +2166,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>68</v>
       </c>
@@ -2258,13 +2189,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>68</v>
       </c>
@@ -2287,13 +2212,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>68</v>
       </c>
@@ -2316,13 +2235,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>115</v>
       </c>
@@ -2345,13 +2258,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>115</v>
       </c>
@@ -2374,13 +2281,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>68</v>
       </c>
@@ -2406,13 +2307,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>68</v>
       </c>
@@ -2435,13 +2330,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>68</v>
       </c>
@@ -2467,13 +2356,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>115</v>
       </c>
@@ -2496,13 +2379,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>91</v>
       </c>
@@ -2528,13 +2405,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>82</v>
       </c>
@@ -2561,12 +2432,6 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
       <c r="C33" t="s">
         <v>85</v>
       </c>
@@ -2590,12 +2455,6 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
@@ -2622,12 +2481,6 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
       <c r="C35" t="s">
         <v>118</v>
       </c>
@@ -2654,12 +2507,6 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
       <c r="C36" t="s">
         <v>68</v>
       </c>
@@ -2686,12 +2533,6 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
       <c r="C37" t="s">
         <v>68</v>
       </c>
@@ -2718,12 +2559,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38"/>
       <c r="C38" s="3" t="s">
         <v>106</v>
       </c>
@@ -2747,12 +2584,6 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
       <c r="C39" t="s">
         <v>68</v>
       </c>
@@ -2779,12 +2610,6 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
       <c r="C40" t="s">
         <v>68</v>
       </c>
@@ -2811,12 +2636,6 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
       <c r="C41" t="s">
         <v>125</v>
       </c>
@@ -2843,12 +2662,6 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
       <c r="C42" t="s">
         <v>127</v>
       </c>
@@ -2875,12 +2688,6 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
       <c r="C43" t="s">
         <v>68</v>
       </c>
@@ -2907,12 +2714,6 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
       <c r="C44" t="s">
         <v>129</v>
       </c>
@@ -2939,12 +2740,6 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
@@ -2971,12 +2766,6 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
@@ -3003,12 +2792,6 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
@@ -3035,12 +2818,6 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
       <c r="C48" t="s">
         <v>68</v>
       </c>
@@ -3066,13 +2843,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>68</v>
       </c>
@@ -3098,13 +2869,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>141</v>
       </c>
@@ -3130,13 +2895,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>143</v>
       </c>
@@ -3162,13 +2921,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -3194,13 +2947,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>85</v>
       </c>
@@ -3223,13 +2970,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>145</v>
       </c>
@@ -3255,13 +2996,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>91</v>
       </c>
@@ -3284,13 +3019,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>150</v>
       </c>
@@ -3316,13 +3045,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3348,13 +3071,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>127</v>
       </c>
@@ -3380,13 +3097,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>68</v>
       </c>
@@ -3412,13 +3123,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>68</v>
       </c>
@@ -3444,13 +3149,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>68</v>
       </c>
@@ -3476,13 +3175,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>68</v>
       </c>
@@ -3508,13 +3201,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>68</v>
       </c>
@@ -3540,13 +3227,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>68</v>
       </c>
@@ -3572,13 +3253,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>115</v>
       </c>
@@ -3604,13 +3279,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -3636,13 +3305,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>106</v>
       </c>
@@ -3665,13 +3328,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>68</v>
       </c>
@@ -3697,13 +3354,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>68</v>
       </c>
@@ -3729,13 +3380,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>68</v>
       </c>
@@ -3761,13 +3406,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>68</v>
       </c>
@@ -3793,13 +3432,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>159</v>
       </c>
@@ -3825,13 +3458,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -3857,13 +3484,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>162</v>
       </c>
@@ -3886,13 +3507,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>115</v>
       </c>
@@ -3915,13 +3530,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>68</v>
       </c>
@@ -3947,13 +3556,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>68</v>
       </c>
@@ -3979,13 +3582,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>68</v>
       </c>
@@ -4008,13 +3605,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>68</v>
       </c>
@@ -4040,13 +3631,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>68</v>
       </c>
@@ -4072,13 +3657,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>68</v>
       </c>
@@ -4104,13 +3683,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>68</v>
       </c>
@@ -4136,13 +3709,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>68</v>
       </c>
@@ -4168,13 +3735,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>68</v>
       </c>
@@ -4200,13 +3761,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>106</v>
       </c>
@@ -4229,13 +3784,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>68</v>
       </c>
@@ -4261,13 +3810,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>68</v>
       </c>
@@ -4293,13 +3836,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>85</v>
       </c>
@@ -4322,13 +3859,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>68</v>
       </c>
@@ -4354,13 +3885,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>68</v>
       </c>
@@ -4386,13 +3911,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>182</v>
       </c>
@@ -4416,13 +3935,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>91</v>
-      </c>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>68</v>
       </c>
@@ -4448,13 +3961,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>92</v>
-      </c>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>68</v>
       </c>
@@ -4480,13 +3987,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
-      </c>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>85</v>
       </c>
@@ -4512,13 +4013,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>94</v>
-      </c>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>188</v>
       </c>
@@ -4544,13 +4039,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
-      </c>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>15</v>
       </c>
@@ -4576,13 +4065,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>68</v>
       </c>
@@ -4608,13 +4091,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
-      </c>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>68</v>
       </c>
@@ -4640,13 +4117,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>98</v>
-      </c>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>68</v>
       </c>
@@ -4672,13 +4143,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
-      </c>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>68</v>
       </c>
@@ -4701,13 +4166,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>118</v>
       </c>
@@ -4733,13 +4192,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>101</v>
-      </c>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>68</v>
       </c>
@@ -4765,13 +4218,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>68</v>
       </c>
@@ -4797,13 +4244,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>103</v>
-      </c>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>68</v>
       </c>
@@ -4829,13 +4270,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>104</v>
-      </c>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>68</v>
       </c>
@@ -4861,13 +4296,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>105</v>
-      </c>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>85</v>
       </c>
@@ -4893,13 +4322,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>106</v>
-      </c>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>68</v>
       </c>
@@ -4925,13 +4348,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>107</v>
-      </c>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>68</v>
       </c>
@@ -4957,13 +4374,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>108</v>
-      </c>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>129</v>
       </c>
@@ -4989,13 +4400,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>109</v>
-      </c>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>223</v>
       </c>
@@ -5018,13 +4423,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>110</v>
-      </c>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>223</v>
       </c>
@@ -5050,13 +4449,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>111</v>
-      </c>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>68</v>
       </c>
@@ -5083,12 +4476,6 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>112</v>
-      </c>
       <c r="C113" t="s">
         <v>68</v>
       </c>
@@ -5115,12 +4502,6 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>113</v>
-      </c>
       <c r="C114" t="s">
         <v>182</v>
       </c>
@@ -5147,12 +4528,6 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>114</v>
-      </c>
       <c r="C115" t="s">
         <v>68</v>
       </c>
@@ -5179,12 +4554,6 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>115</v>
-      </c>
       <c r="C116" t="s">
         <v>68</v>
       </c>
@@ -5211,12 +4580,6 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>116</v>
-      </c>
       <c r="C117" t="s">
         <v>39</v>
       </c>
@@ -5243,12 +4606,6 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>117</v>
-      </c>
       <c r="C118" t="s">
         <v>39</v>
       </c>
@@ -5275,12 +4632,6 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>118</v>
-      </c>
       <c r="C119" t="s">
         <v>68</v>
       </c>
@@ -5307,12 +4658,6 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>119</v>
-      </c>
       <c r="C120" t="s">
         <v>68</v>
       </c>
@@ -5339,12 +4684,6 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>120</v>
-      </c>
       <c r="C121" t="s">
         <v>233</v>
       </c>
@@ -5371,12 +4710,6 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>121</v>
-      </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
@@ -5400,12 +4733,8 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>122</v>
-      </c>
+      <c r="A123"/>
+      <c r="B123"/>
       <c r="C123" s="3" t="s">
         <v>12</v>
       </c>
@@ -5432,12 +4761,6 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>123</v>
-      </c>
       <c r="C124" t="s">
         <v>39</v>
       </c>
@@ -5464,12 +4787,6 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>124</v>
-      </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
@@ -5496,12 +4813,6 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>125</v>
-      </c>
       <c r="C126" t="s">
         <v>223</v>
       </c>
@@ -5528,12 +4839,6 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>126</v>
-      </c>
       <c r="C127" t="s">
         <v>223</v>
       </c>
@@ -5560,12 +4865,6 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>127</v>
-      </c>
       <c r="C128" t="s">
         <v>223</v>
       </c>
@@ -5591,13 +4890,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>128</v>
-      </c>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>68</v>
       </c>
@@ -5623,13 +4916,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>129</v>
-      </c>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D130" s="1">
         <v>43884</v>
       </c>
@@ -5649,13 +4936,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
-      </c>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>12</v>
       </c>
@@ -5681,13 +4962,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>131</v>
-      </c>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>12</v>
       </c>
@@ -5710,13 +4985,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>132</v>
-      </c>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>244</v>
       </c>
@@ -5742,13 +5011,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>133</v>
-      </c>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>246</v>
       </c>
@@ -5774,13 +5037,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>134</v>
-      </c>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>248</v>
       </c>
@@ -5806,13 +5063,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>135</v>
-      </c>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>250</v>
       </c>
@@ -5838,13 +5089,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>136</v>
-      </c>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>252</v>
       </c>
@@ -5870,13 +5115,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>137</v>
-      </c>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>39</v>
       </c>
@@ -5902,13 +5141,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>138</v>
-      </c>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>39</v>
       </c>
@@ -5934,13 +5167,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>139</v>
-      </c>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>68</v>
       </c>
@@ -5966,13 +5193,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>140</v>
-      </c>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>68</v>
       </c>
@@ -5998,13 +5219,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>141</v>
-      </c>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>12</v>
       </c>
@@ -6030,13 +5245,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>142</v>
-      </c>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>223</v>
       </c>
@@ -6062,13 +5271,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>143</v>
-      </c>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>223</v>
       </c>
@@ -6094,13 +5297,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>144</v>
-      </c>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>68</v>
       </c>
@@ -6126,13 +5323,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>145</v>
-      </c>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>68</v>
       </c>
@@ -6158,13 +5349,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>146</v>
-      </c>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>39</v>
       </c>
@@ -6190,13 +5375,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>147</v>
-      </c>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>12</v>
       </c>
@@ -6222,13 +5401,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>148</v>
-      </c>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>106</v>
       </c>
@@ -6254,13 +5427,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150">
-        <v>149</v>
-      </c>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>106</v>
       </c>
@@ -6286,13 +5453,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>150</v>
-      </c>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>267</v>
       </c>
@@ -6318,13 +5479,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152">
-        <v>151</v>
-      </c>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>29</v>
       </c>
@@ -6350,13 +5505,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153">
-        <v>152</v>
-      </c>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>269</v>
       </c>
@@ -6382,13 +5531,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>153</v>
-      </c>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>271</v>
       </c>
@@ -6414,13 +5557,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155">
-        <v>154</v>
-      </c>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>273</v>
       </c>
@@ -6446,13 +5583,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156">
-        <v>155</v>
-      </c>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>275</v>
       </c>
@@ -6478,13 +5609,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157">
-        <v>156</v>
-      </c>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>254</v>
       </c>
@@ -6510,13 +5635,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158">
-        <v>157</v>
-      </c>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>32</v>
       </c>
@@ -6542,13 +5661,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159">
-        <v>158</v>
-      </c>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>21</v>
       </c>
@@ -6574,13 +5687,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160">
-        <v>159</v>
-      </c>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>23</v>
       </c>
@@ -6606,13 +5713,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161">
-        <v>160</v>
-      </c>
+    <row r="161" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>17</v>
       </c>
@@ -6638,13 +5739,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162">
-        <v>161</v>
-      </c>
+    <row r="162" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>106</v>
       </c>
@@ -6670,13 +5765,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163">
-        <v>162</v>
-      </c>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>106</v>
       </c>
@@ -6702,13 +5791,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164">
-        <v>163</v>
-      </c>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>12</v>
       </c>
@@ -6734,13 +5817,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165">
-        <v>164</v>
-      </c>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>12</v>
       </c>
@@ -6766,13 +5843,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166">
-        <v>165</v>
-      </c>
+    <row r="166" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>91</v>
       </c>
@@ -6792,13 +5863,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167">
-        <v>166</v>
-      </c>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>34</v>
       </c>
@@ -6824,13 +5889,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <v>167</v>
-      </c>
+    <row r="168" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>18</v>
       </c>
@@ -6856,13 +5915,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <v>168</v>
-      </c>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>17</v>
       </c>
@@ -6888,13 +5941,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <v>169</v>
-      </c>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>271</v>
       </c>
@@ -6920,13 +5967,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>170</v>
-      </c>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>223</v>
       </c>
@@ -6952,13 +5993,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <v>171</v>
-      </c>
+    <row r="172" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>39</v>
       </c>
@@ -6984,13 +6019,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <v>172</v>
-      </c>
+    <row r="173" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>39</v>
       </c>
@@ -7016,13 +6045,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <v>173</v>
-      </c>
+    <row r="174" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>223</v>
       </c>
@@ -7048,13 +6071,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <v>174</v>
-      </c>
+    <row r="175" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>223</v>
       </c>
@@ -7080,13 +6097,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <v>175</v>
-      </c>
+    <row r="176" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>379</v>
       </c>
@@ -7112,12 +6123,24 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>176</v>
+    <row r="177" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>383</v>
+      </c>
+      <c r="D177" s="1">
+        <v>43892</v>
+      </c>
+      <c r="F177" t="s">
+        <v>81</v>
+      </c>
+      <c r="G177" t="s">
+        <v>84</v>
+      </c>
+      <c r="H177" t="s">
+        <v>385</v>
+      </c>
+      <c r="I177" t="s">
+        <v>344</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>71</v>
@@ -7126,12 +6149,24 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <v>177</v>
+    <row r="178" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>386</v>
+      </c>
+      <c r="D178" s="1">
+        <v>43892</v>
+      </c>
+      <c r="F178" t="s">
+        <v>81</v>
+      </c>
+      <c r="G178" t="s">
+        <v>84</v>
+      </c>
+      <c r="H178" t="s">
+        <v>131</v>
+      </c>
+      <c r="I178" t="s">
+        <v>344</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>71</v>
@@ -7140,12 +6175,24 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179">
-        <v>178</v>
+    <row r="179" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>388</v>
+      </c>
+      <c r="D179" s="1">
+        <v>43892</v>
+      </c>
+      <c r="F179" t="s">
+        <v>81</v>
+      </c>
+      <c r="G179" t="s">
+        <v>84</v>
+      </c>
+      <c r="H179" t="s">
+        <v>131</v>
+      </c>
+      <c r="I179" t="s">
+        <v>344</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>71</v>
@@ -7154,12 +6201,24 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180">
-        <v>179</v>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="1">
+        <v>43893</v>
+      </c>
+      <c r="F180" t="s">
+        <v>81</v>
+      </c>
+      <c r="G180" t="s">
+        <v>79</v>
+      </c>
+      <c r="H180" t="s">
+        <v>390</v>
+      </c>
+      <c r="I180" t="s">
+        <v>391</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>71</v>
@@ -7168,12 +6227,24 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <v>180</v>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>223</v>
+      </c>
+      <c r="D181" s="1">
+        <v>43893</v>
+      </c>
+      <c r="F181" t="s">
+        <v>81</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>390</v>
+      </c>
+      <c r="I181" t="s">
+        <v>391</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>71</v>
@@ -7182,40 +6253,68 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182">
-        <v>181</v>
-      </c>
-      <c r="L182" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M182" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183">
-        <v>182</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M183" s="1">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184">
-        <v>183</v>
+    <row r="182" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" s="1">
+        <v>43895</v>
+      </c>
+      <c r="F182" t="s">
+        <v>81</v>
+      </c>
+      <c r="G182" t="s">
+        <v>84</v>
+      </c>
+      <c r="H182" t="s">
+        <v>400</v>
+      </c>
+      <c r="I182" t="s">
+        <v>401</v>
+      </c>
+      <c r="L182" s="2"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" s="1">
+        <v>43896</v>
+      </c>
+      <c r="F183" t="s">
+        <v>81</v>
+      </c>
+      <c r="G183" t="s">
+        <v>84</v>
+      </c>
+      <c r="H183" t="s">
+        <v>398</v>
+      </c>
+      <c r="I183" t="s">
+        <v>399</v>
+      </c>
+      <c r="L183" s="2"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>106</v>
+      </c>
+      <c r="D184" s="1">
+        <v>43897</v>
+      </c>
+      <c r="F184" t="s">
+        <v>81</v>
+      </c>
+      <c r="G184" t="s">
+        <v>79</v>
+      </c>
+      <c r="H184" t="s">
+        <v>392</v>
+      </c>
+      <c r="I184" t="s">
+        <v>395</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>71</v>
@@ -7224,12 +6323,24 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185">
-        <v>184</v>
+    <row r="185" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>106</v>
+      </c>
+      <c r="D185" s="1">
+        <v>43897</v>
+      </c>
+      <c r="F185" t="s">
+        <v>81</v>
+      </c>
+      <c r="G185" t="s">
+        <v>84</v>
+      </c>
+      <c r="H185" t="s">
+        <v>393</v>
+      </c>
+      <c r="I185" t="s">
+        <v>394</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>71</v>
@@ -7238,17 +6349,45 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186">
-        <v>185</v>
+    <row r="186" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" s="1">
+        <v>43897</v>
+      </c>
+      <c r="F186" t="s">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>84</v>
+      </c>
+      <c r="H186" t="s">
+        <v>396</v>
+      </c>
+      <c r="I186" t="s">
+        <v>397</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M186" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="187" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L187" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M187" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="188" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L188" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M188" s="1">
         <v>43911</v>
       </c>
     </row>
@@ -7431,11 +6570,11 @@
     <hyperlink ref="L179" r:id="rId174" xr:uid="{A47E2FAC-4C8C-4097-BD2A-5B1C05BA38B6}"/>
     <hyperlink ref="L180" r:id="rId175" xr:uid="{0BF73651-8407-4BD9-8ED4-262BB68D10D3}"/>
     <hyperlink ref="L181" r:id="rId176" xr:uid="{B58C3235-C3DF-4479-A53C-805B95F35C30}"/>
-    <hyperlink ref="L182" r:id="rId177" xr:uid="{F965C7E3-2B53-4324-972E-8980AE14E4D7}"/>
-    <hyperlink ref="L183" r:id="rId178" xr:uid="{58257C62-A81D-446F-B18B-BEF9952F0375}"/>
-    <hyperlink ref="L184" r:id="rId179" xr:uid="{C785A14B-E96C-481B-A138-8C5C0E1F820E}"/>
-    <hyperlink ref="L185" r:id="rId180" xr:uid="{B72CF05A-AA5F-4D93-8125-E83FBD0B8291}"/>
-    <hyperlink ref="L186" r:id="rId181" xr:uid="{AE08C09D-6270-4E2E-9309-581447E4C254}"/>
+    <hyperlink ref="L184" r:id="rId177" xr:uid="{F965C7E3-2B53-4324-972E-8980AE14E4D7}"/>
+    <hyperlink ref="L185" r:id="rId178" xr:uid="{58257C62-A81D-446F-B18B-BEF9952F0375}"/>
+    <hyperlink ref="L186" r:id="rId179" xr:uid="{C785A14B-E96C-481B-A138-8C5C0E1F820E}"/>
+    <hyperlink ref="L187" r:id="rId180" xr:uid="{B72CF05A-AA5F-4D93-8125-E83FBD0B8291}"/>
+    <hyperlink ref="L188" r:id="rId181" xr:uid="{AE08C09D-6270-4E2E-9309-581447E4C254}"/>
     <hyperlink ref="L23" r:id="rId182" xr:uid="{869BD461-8399-4E46-AB5F-BF7FEC22AA98}"/>
     <hyperlink ref="L122" r:id="rId183" xr:uid="{16C37BC8-D542-42B7-9EE6-2CF4FC678B9F}"/>
   </hyperlinks>
@@ -7449,17 +6588,17 @@
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{142E1B15-4840-422A-BD0C-26D5C3B0A896}">
+          <x14:formula1>
+            <xm:f>source!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{050F8FDA-581C-4A0F-BAC3-6DEFAD7E20E5}">
           <x14:formula1>
             <xm:f>'iso2'!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{142E1B15-4840-422A-BD0C-26D5C3B0A896}">
-          <x14:formula1>
-            <xm:f>source!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7519,10 +6658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135DECB3-8050-4A31-957F-61CD3DC80792}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7791,238 +6930,262 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>388</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B45" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>106</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A56">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A58">
     <sortCondition ref="A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid19_events.xlsx
+++ b/covid19_events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cganty\Documents\src\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E499EFC-55C2-4252-9514-F19B6E515EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C621011F-1556-4947-9826-8CDD8897336E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10335" windowHeight="10920" activeTab="3" xr2:uid="{21C70E2E-B89D-4ECD-8147-7A21A676BFAC}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="383">
   <si>
     <t>id</t>
   </si>
@@ -1183,6 +1183,9 @@
   </si>
   <si>
     <t>more than 1000 deaths</t>
+  </si>
+  <si>
+    <t>https://medium.com/@tomaspueyo/coronavirus-the-hammer-and-the-dance-be9337092b56</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE82E1A5-1AF0-4B8D-AEC0-EAE4D7F581D4}">
   <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M245" sqref="M245"/>
     </sheetView>
   </sheetViews>
@@ -10353,15 +10356,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAA5DB8-E0F5-4C1C-8130-69EFAF03BEAB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
